--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nordlinglab-covid19-forecasting\Scripts_for_data_exploration\RW_code\code_meta-analysis_vaccine_efficacy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F42EF0-9D46-43C9-9DB3-F03D053B5CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE880A0-E8B7-4318-8C82-13C9CD5BAEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4815" yWindow="-18120" windowWidth="27405" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="171">
   <si>
     <t>Vaccine</t>
   </si>
@@ -543,6 +543,10 @@
   </si>
   <si>
     <t>Palacios2023_CoronaVac_efficacy</t>
+  </si>
+  <si>
+    <t>Wald test based on the Cox proportional hazards model</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -553,7 +557,7 @@
     <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +644,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -674,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -700,6 +710,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -921,7 +932,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8:W10"/>
+      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1473,8 +1484,8 @@
       <c r="S8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>30</v>
+      <c r="T8" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>31</v>
@@ -1541,8 +1552,8 @@
       <c r="S9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>30</v>
+      <c r="T9" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>31</v>
@@ -1609,8 +1620,8 @@
       <c r="S10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>30</v>
+      <c r="T10" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>31</v>
@@ -7187,7 +7198,7 @@
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{02B461A9-756B-4235-A149-7EF2B58651F8}">
+      <autoFilter ref="A1:A1066" xr:uid="{5F41D768-EB36-491B-9091-65F828282ADF}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE880A0-E8B7-4318-8C82-13C9CD5BAEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8731258-5391-412E-818D-B1F684940958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4815" yWindow="-18120" windowWidth="27405" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,9 +310,6 @@
     <t>Covid-19 illness</t>
   </si>
   <si>
-    <t>stratified Cox proportional-hazards model with Efron's method of tie handling</t>
-  </si>
-  <si>
     <t>Phase 4</t>
   </si>
   <si>
@@ -546,6 +543,10 @@
   </si>
   <si>
     <t>Wald test based on the Cox proportional hazards model</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stratified Cox proportional-hazards model with Efron's method of tie handling</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +933,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomRight" activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1485,7 +1486,7 @@
         <v>55</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>31</v>
@@ -1494,7 +1495,7 @@
         <v>32</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X8" s="3"/>
     </row>
@@ -1553,7 +1554,7 @@
         <v>55</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>31</v>
@@ -1562,7 +1563,7 @@
         <v>32</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X9" s="3"/>
     </row>
@@ -1621,7 +1622,7 @@
         <v>55</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>31</v>
@@ -1630,7 +1631,7 @@
         <v>32</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X10" s="3"/>
     </row>
@@ -1690,8 +1691,8 @@
       <c r="S11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="5" t="s">
-        <v>30</v>
+      <c r="T11" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>31</v>
@@ -1756,8 +1757,8 @@
       <c r="S12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="5" t="s">
-        <v>30</v>
+      <c r="T12" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>31</v>
@@ -2752,17 +2753,17 @@
       <c r="S27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="U27" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X27" s="1"/>
     </row>
@@ -2809,7 +2810,7 @@
         <v>59</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>39</v>
@@ -2818,17 +2819,17 @@
       <c r="S28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="U28" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="V28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W28" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X28" s="1"/>
     </row>
@@ -2884,17 +2885,17 @@
       <c r="S29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X29" s="1"/>
     </row>
@@ -2932,7 +2933,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N30" s="5">
         <v>53</v>
@@ -2941,7 +2942,7 @@
         <v>59</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>28</v>
@@ -2960,7 +2961,7 @@
         <v>32</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X30" s="1"/>
     </row>
@@ -2998,7 +2999,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N31" s="5">
         <v>53</v>
@@ -3026,13 +3027,13 @@
         <v>32</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -3064,13 +3065,13 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N32" s="5">
         <v>115</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>43</v>
@@ -3083,7 +3084,7 @@
         <v>55</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>31</v>
@@ -3092,13 +3093,13 @@
         <v>32</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -3130,16 +3131,16 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N33" s="5">
         <v>115</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>28</v>
@@ -3149,7 +3150,7 @@
         <v>55</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>31</v>
@@ -3158,13 +3159,13 @@
         <v>32</v>
       </c>
       <c r="W33" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>24</v>
@@ -3196,16 +3197,16 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N34" s="5">
         <v>115</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>39</v>
@@ -3215,7 +3216,7 @@
         <v>55</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U34" s="3" t="s">
         <v>31</v>
@@ -3224,7 +3225,7 @@
         <v>32</v>
       </c>
       <c r="W34" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z34" s="1"/>
     </row>
@@ -3262,13 +3263,13 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N35" s="5">
         <v>112</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>43</v>
@@ -3290,7 +3291,7 @@
         <v>32</v>
       </c>
       <c r="W35" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X35" s="1"/>
     </row>
@@ -3328,16 +3329,16 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N36" s="5">
         <v>112</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>28</v>
@@ -3356,7 +3357,7 @@
         <v>32</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X36" s="1"/>
     </row>
@@ -3394,16 +3395,16 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N37" s="5">
         <v>112</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>50</v>
@@ -3422,7 +3423,7 @@
         <v>32</v>
       </c>
       <c r="W37" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X37" s="1"/>
     </row>
@@ -3460,19 +3461,19 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N38" s="5">
         <v>112</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="5" t="s">
@@ -3488,7 +3489,7 @@
         <v>32</v>
       </c>
       <c r="W38" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X38" s="1"/>
     </row>
@@ -3526,19 +3527,19 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N39" s="5">
         <v>112</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="5" t="s">
@@ -3554,7 +3555,7 @@
         <v>32</v>
       </c>
       <c r="W39" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X39" s="1"/>
     </row>
@@ -3592,19 +3593,19 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N40" s="5">
         <v>112</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q40" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="5" t="s">
@@ -3620,7 +3621,7 @@
         <v>32</v>
       </c>
       <c r="W40" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X40" s="1"/>
     </row>
@@ -3658,16 +3659,16 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N41" s="5">
         <v>28</v>
       </c>
       <c r="O41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>28</v>
@@ -3677,21 +3678,21 @@
         <v>44</v>
       </c>
       <c r="T41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="U41" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W41" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3729,10 +3730,10 @@
         <v>23</v>
       </c>
       <c r="O42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>28</v>
@@ -3748,15 +3749,15 @@
         <v>31</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3794,10 +3795,10 @@
         <v>23</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>39</v>
@@ -3813,15 +3814,15 @@
         <v>31</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W43" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -3859,13 +3860,13 @@
         <v>23</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="1" t="s">
@@ -3878,15 +3879,15 @@
         <v>31</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W44" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
@@ -3924,10 +3925,10 @@
         <v>23</v>
       </c>
       <c r="O45" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>28</v>
@@ -3943,15 +3944,15 @@
         <v>31</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W45" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3989,10 +3990,10 @@
         <v>23</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>39</v>
@@ -4008,15 +4009,15 @@
         <v>31</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
@@ -4054,13 +4055,13 @@
         <v>23</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="1" t="s">
@@ -4073,10 +4074,10 @@
         <v>31</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W47" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4120,10 +4121,10 @@
         <v>26</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
@@ -4133,13 +4134,13 @@
         <v>30</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W48" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X48" s="5">
         <v>18</v>
@@ -4186,7 +4187,7 @@
         <v>26</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>39</v>
@@ -4199,13 +4200,13 @@
         <v>30</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W49" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4213,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="5">
         <v>100</v>
@@ -4249,10 +4250,10 @@
         <v>26</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3" t="s">
@@ -4262,18 +4263,18 @@
         <v>30</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W50" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>24</v>
@@ -4305,40 +4306,40 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N51" s="5">
         <v>227</v>
       </c>
       <c r="O51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="P51" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R51" s="5"/>
       <c r="S51" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="U51" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="U51" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="V51" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>24</v>
@@ -4370,35 +4371,35 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N52" s="5">
         <v>227</v>
       </c>
       <c r="O52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R52" s="5"/>
       <c r="S52" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="U52" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="T52" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="U52" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="V52" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4436,13 +4437,13 @@
         <v>90</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="1" t="s">
@@ -4452,13 +4453,13 @@
         <v>61</v>
       </c>
       <c r="U53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="W53" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="V53" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="W53" s="16" t="s">
-        <v>137</v>
       </c>
       <c r="X53" s="5">
         <v>20</v>
@@ -4499,13 +4500,13 @@
         <v>90</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R54" s="5"/>
       <c r="S54" s="1" t="s">
@@ -4515,13 +4516,13 @@
         <v>61</v>
       </c>
       <c r="U54" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="W54" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="V54" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="W54" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4559,10 +4560,10 @@
         <v>90</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>39</v>
@@ -4575,13 +4576,13 @@
         <v>61</v>
       </c>
       <c r="U55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="W55" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="W55" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4619,13 +4620,13 @@
         <v>90</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R56" s="5"/>
       <c r="S56" s="1" t="s">
@@ -4635,13 +4636,13 @@
         <v>61</v>
       </c>
       <c r="U56" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="W56" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="V56" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="W56" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4649,7 +4650,7 @@
         <v>79</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="5">
         <v>70.400000000000006</v>
@@ -4678,7 +4679,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N57" s="5">
         <v>82</v>
@@ -4699,13 +4700,13 @@
         <v>61</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V57" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X57" s="5">
         <v>21</v>
@@ -4716,7 +4717,7 @@
         <v>79</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="5">
         <v>81.5</v>
@@ -4745,7 +4746,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N58" s="5">
         <v>82</v>
@@ -4766,18 +4767,18 @@
         <v>61</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V58" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>24</v>
@@ -4813,7 +4814,7 @@
         <v>365</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>28</v>
@@ -4825,24 +4826,24 @@
         <v>1</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>24</v>
@@ -4877,10 +4878,10 @@
         <v>365</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q60" s="5" t="s">
         <v>50</v>
@@ -4889,24 +4890,24 @@
         <v>1</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V60" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>24</v>
@@ -4941,36 +4942,36 @@
         <v>365</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R61" s="5">
         <v>1</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V61" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>77</v>
@@ -5005,10 +5006,10 @@
         <v>365</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q62" s="5" t="s">
         <v>28</v>
@@ -5017,27 +5018,27 @@
         <v>1</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V62" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" s="5">
         <v>88.3</v>
@@ -5069,10 +5070,10 @@
         <v>365</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q63" s="5" t="s">
         <v>28</v>
@@ -5081,24 +5082,24 @@
         <v>1</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>78</v>
@@ -5133,10 +5134,10 @@
         <v>365</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q64" s="5" t="s">
         <v>28</v>
@@ -5145,24 +5146,24 @@
         <v>1</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V64" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>76</v>
@@ -5197,10 +5198,10 @@
         <v>365</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q65" s="5" t="s">
         <v>28</v>
@@ -5209,24 +5210,24 @@
         <v>1</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V65" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>24</v>
@@ -5255,13 +5256,13 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N66" s="5">
         <v>171</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>28</v>
@@ -5273,24 +5274,24 @@
         <v>1</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V66" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W66" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>24</v>
@@ -5319,13 +5320,13 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N67" s="5">
         <v>171</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>48</v>
@@ -5337,24 +5338,24 @@
         <v>1</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>24</v>
@@ -5383,13 +5384,13 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N68" s="5">
         <v>171</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>39</v>
@@ -5401,24 +5402,24 @@
         <v>1</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>76</v>
@@ -5450,7 +5451,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N69" s="5">
         <v>158</v>
@@ -5468,19 +5469,19 @@
         <v>1</v>
       </c>
       <c r="S69" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U69" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="T69" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U69" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X69" s="5">
         <v>24</v>
@@ -5488,7 +5489,7 @@
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>76</v>
@@ -5522,7 +5523,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>28</v>
@@ -5534,19 +5535,19 @@
         <v>1</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T70" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X70" s="5">
         <v>25</v>
@@ -5554,7 +5555,7 @@
     </row>
     <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>24</v>
@@ -5592,7 +5593,7 @@
         <v>61</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>28</v>
@@ -5602,24 +5603,24 @@
       </c>
       <c r="R71" s="5"/>
       <c r="S71" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>24</v>
@@ -5657,7 +5658,7 @@
         <v>61</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>48</v>
@@ -5666,24 +5667,24 @@
         <v>48</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W72" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>24</v>
@@ -5721,33 +5722,33 @@
         <v>61</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q73" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V73" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W73" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>24</v>
@@ -5785,33 +5786,33 @@
         <v>61</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q74" s="5" t="s">
         <v>75</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W74" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>24</v>
@@ -5846,7 +5847,7 @@
     </row>
     <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>24</v>
@@ -5881,7 +5882,7 @@
     </row>
     <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>24</v>
@@ -5916,7 +5917,7 @@
     </row>
     <row r="78" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>24</v>
@@ -5951,7 +5952,7 @@
     </row>
     <row r="79" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>24</v>
@@ -5986,7 +5987,7 @@
     </row>
     <row r="80" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>24</v>
@@ -6013,15 +6014,15 @@
         <v>28</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>76</v>
@@ -7198,7 +7199,7 @@
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{5F41D768-EB36-491B-9091-65F828282ADF}">
+      <autoFilter ref="A1:A1066" xr:uid="{906903A4-5E56-4648-AB8C-18F9A44FE6F7}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8731258-5391-412E-818D-B1F684940958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489A911A-5C8E-46FB-B783-0E01D498140D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4815" yWindow="-18120" windowWidth="27405" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,9 +337,6 @@
     <t>Argentina, Chile, Mexico. Pakistan and russia</t>
   </si>
   <si>
-    <t>Binomial exact</t>
-  </si>
-  <si>
     <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
   </si>
   <si>
@@ -546,8 +543,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Stratified Cox proportional-hazards model with Efron's method of tie handling</t>
+    <t>Stratified Cox proportional hazards model</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cox proportional hazards model</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T29" sqref="T29"/>
+      <selection pane="bottomRight" activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1486,7 +1486,7 @@
         <v>55</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>31</v>
@@ -1495,7 +1495,7 @@
         <v>32</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X8" s="3"/>
     </row>
@@ -1554,7 +1554,7 @@
         <v>55</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>31</v>
@@ -1563,7 +1563,7 @@
         <v>32</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X9" s="3"/>
     </row>
@@ -1622,7 +1622,7 @@
         <v>55</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>31</v>
@@ -1631,7 +1631,7 @@
         <v>32</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X10" s="3"/>
     </row>
@@ -1692,7 +1692,7 @@
         <v>55</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>31</v>
@@ -1758,7 +1758,7 @@
         <v>55</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>31</v>
@@ -2754,7 +2754,7 @@
         <v>55</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>92</v>
@@ -2820,7 +2820,7 @@
         <v>55</v>
       </c>
       <c r="T28" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U28" s="3" t="s">
         <v>92</v>
@@ -2886,7 +2886,7 @@
         <v>55</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>92</v>
@@ -3084,7 +3084,7 @@
         <v>55</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>31</v>
@@ -3093,7 +3093,7 @@
         <v>32</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z32" s="1"/>
     </row>
@@ -3140,7 +3140,7 @@
         <v>100</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>28</v>
@@ -3150,7 +3150,7 @@
         <v>55</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>31</v>
@@ -3159,7 +3159,7 @@
         <v>32</v>
       </c>
       <c r="W33" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z33" s="1"/>
     </row>
@@ -3216,7 +3216,7 @@
         <v>55</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="U34" s="3" t="s">
         <v>31</v>
@@ -3225,7 +3225,7 @@
         <v>32</v>
       </c>
       <c r="W34" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z34" s="1"/>
     </row>
@@ -3263,13 +3263,13 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N35" s="5">
         <v>112</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>43</v>
@@ -3291,7 +3291,7 @@
         <v>32</v>
       </c>
       <c r="W35" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X35" s="1"/>
     </row>
@@ -3329,16 +3329,16 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N36" s="5">
         <v>112</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>28</v>
@@ -3357,7 +3357,7 @@
         <v>32</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X36" s="1"/>
     </row>
@@ -3395,16 +3395,16 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N37" s="5">
         <v>112</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>50</v>
@@ -3423,7 +3423,7 @@
         <v>32</v>
       </c>
       <c r="W37" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X37" s="1"/>
     </row>
@@ -3461,19 +3461,19 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N38" s="5">
         <v>112</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="5" t="s">
@@ -3489,7 +3489,7 @@
         <v>32</v>
       </c>
       <c r="W38" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X38" s="1"/>
     </row>
@@ -3527,19 +3527,19 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N39" s="5">
         <v>112</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="5" t="s">
@@ -3555,7 +3555,7 @@
         <v>32</v>
       </c>
       <c r="W39" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X39" s="1"/>
     </row>
@@ -3593,19 +3593,19 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N40" s="5">
         <v>112</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q40" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="5" t="s">
@@ -3621,7 +3621,7 @@
         <v>32</v>
       </c>
       <c r="W40" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X40" s="1"/>
     </row>
@@ -3659,16 +3659,16 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N41" s="5">
         <v>28</v>
       </c>
       <c r="O41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>28</v>
@@ -3678,21 +3678,21 @@
         <v>44</v>
       </c>
       <c r="T41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="U41" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W41" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3730,10 +3730,10 @@
         <v>23</v>
       </c>
       <c r="O42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P42" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>28</v>
@@ -3749,15 +3749,15 @@
         <v>31</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3795,7 +3795,7 @@
         <v>23</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>94</v>
@@ -3814,15 +3814,15 @@
         <v>31</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W43" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>24</v>
@@ -3860,13 +3860,13 @@
         <v>23</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="1" t="s">
@@ -3879,15 +3879,15 @@
         <v>31</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W44" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
@@ -3925,10 +3925,10 @@
         <v>23</v>
       </c>
       <c r="O45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P45" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>28</v>
@@ -3944,15 +3944,15 @@
         <v>31</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W45" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -3990,7 +3990,7 @@
         <v>23</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>94</v>
@@ -4009,15 +4009,15 @@
         <v>31</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
@@ -4055,13 +4055,13 @@
         <v>23</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="1" t="s">
@@ -4074,10 +4074,10 @@
         <v>31</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W47" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4121,10 +4121,10 @@
         <v>26</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="3" t="s">
@@ -4134,13 +4134,13 @@
         <v>30</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W48" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X48" s="5">
         <v>18</v>
@@ -4200,13 +4200,13 @@
         <v>30</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W49" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" s="5">
         <v>100</v>
@@ -4250,10 +4250,10 @@
         <v>26</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3" t="s">
@@ -4263,18 +4263,18 @@
         <v>30</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W50" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>24</v>
@@ -4306,40 +4306,40 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N51" s="5">
         <v>227</v>
       </c>
       <c r="O51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P51" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="P51" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R51" s="5"/>
       <c r="S51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U51" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="T51" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="U51" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="V51" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>24</v>
@@ -4371,35 +4371,35 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N52" s="5">
         <v>227</v>
       </c>
       <c r="O52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P52" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R52" s="5"/>
       <c r="S52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U52" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="T52" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="U52" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="V52" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4437,13 +4437,13 @@
         <v>90</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="1" t="s">
@@ -4453,13 +4453,13 @@
         <v>61</v>
       </c>
       <c r="U53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W53" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="V53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="W53" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="X53" s="5">
         <v>20</v>
@@ -4500,13 +4500,13 @@
         <v>90</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R54" s="5"/>
       <c r="S54" s="1" t="s">
@@ -4516,13 +4516,13 @@
         <v>61</v>
       </c>
       <c r="U54" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W54" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="V54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="W54" s="16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4560,10 +4560,10 @@
         <v>90</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>39</v>
@@ -4576,13 +4576,13 @@
         <v>61</v>
       </c>
       <c r="U55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W55" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="W55" s="16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4620,13 +4620,13 @@
         <v>90</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R56" s="5"/>
       <c r="S56" s="1" t="s">
@@ -4636,13 +4636,13 @@
         <v>61</v>
       </c>
       <c r="U56" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W56" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="V56" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="W56" s="16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4650,7 +4650,7 @@
         <v>79</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="5">
         <v>70.400000000000006</v>
@@ -4679,7 +4679,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N57" s="5">
         <v>82</v>
@@ -4700,13 +4700,13 @@
         <v>61</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V57" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X57" s="5">
         <v>21</v>
@@ -4717,7 +4717,7 @@
         <v>79</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="5">
         <v>81.5</v>
@@ -4746,7 +4746,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N58" s="5">
         <v>82</v>
@@ -4767,18 +4767,18 @@
         <v>61</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V58" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>24</v>
@@ -4814,7 +4814,7 @@
         <v>365</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>28</v>
@@ -4826,24 +4826,24 @@
         <v>1</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>24</v>
@@ -4878,10 +4878,10 @@
         <v>365</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q60" s="5" t="s">
         <v>50</v>
@@ -4890,24 +4890,24 @@
         <v>1</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V60" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>24</v>
@@ -4942,36 +4942,36 @@
         <v>365</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R61" s="5">
         <v>1</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V61" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>77</v>
@@ -5006,10 +5006,10 @@
         <v>365</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q62" s="5" t="s">
         <v>28</v>
@@ -5018,27 +5018,27 @@
         <v>1</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V62" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="5">
         <v>88.3</v>
@@ -5070,10 +5070,10 @@
         <v>365</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q63" s="5" t="s">
         <v>28</v>
@@ -5082,24 +5082,24 @@
         <v>1</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>78</v>
@@ -5134,10 +5134,10 @@
         <v>365</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q64" s="5" t="s">
         <v>28</v>
@@ -5146,24 +5146,24 @@
         <v>1</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V64" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>76</v>
@@ -5198,10 +5198,10 @@
         <v>365</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q65" s="5" t="s">
         <v>28</v>
@@ -5210,24 +5210,24 @@
         <v>1</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V65" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>24</v>
@@ -5256,13 +5256,13 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N66" s="5">
         <v>171</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>28</v>
@@ -5274,24 +5274,24 @@
         <v>1</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V66" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W66" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>24</v>
@@ -5320,13 +5320,13 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N67" s="5">
         <v>171</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>48</v>
@@ -5338,24 +5338,24 @@
         <v>1</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>24</v>
@@ -5384,13 +5384,13 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N68" s="5">
         <v>171</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>39</v>
@@ -5402,24 +5402,24 @@
         <v>1</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>76</v>
@@ -5451,7 +5451,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N69" s="5">
         <v>158</v>
@@ -5469,19 +5469,19 @@
         <v>1</v>
       </c>
       <c r="S69" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U69" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="T69" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U69" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X69" s="5">
         <v>24</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>76</v>
@@ -5523,7 +5523,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>28</v>
@@ -5535,19 +5535,19 @@
         <v>1</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T70" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X70" s="5">
         <v>25</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>24</v>
@@ -5593,7 +5593,7 @@
         <v>61</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>28</v>
@@ -5603,24 +5603,24 @@
       </c>
       <c r="R71" s="5"/>
       <c r="S71" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>24</v>
@@ -5658,7 +5658,7 @@
         <v>61</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P72" s="5" t="s">
         <v>48</v>
@@ -5667,24 +5667,24 @@
         <v>48</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W72" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>24</v>
@@ -5722,33 +5722,33 @@
         <v>61</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q73" s="5" t="s">
         <v>50</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V73" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W73" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>24</v>
@@ -5786,33 +5786,33 @@
         <v>61</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q74" s="5" t="s">
         <v>75</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>45</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W74" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>24</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>24</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>24</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="78" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>24</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="79" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>24</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="80" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>24</v>
@@ -6014,15 +6014,15 @@
         <v>28</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>76</v>
@@ -7199,7 +7199,7 @@
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{906903A4-5E56-4648-AB8C-18F9A44FE6F7}">
+      <autoFilter ref="A1:A1066" xr:uid="{3F84F3FA-9CCF-427F-9879-FC258B8BDE5E}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6917DA7-6523-4ED8-8CCF-3063A40D0BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB46690B-80B8-4CD3-A8C3-42BD4B8B5F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4815" yWindow="-18120" windowWidth="27405" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="175">
   <si>
     <t>Vaccine</t>
   </si>
@@ -371,9 +371,6 @@
   </si>
   <si>
     <t>Phase 3 clinical trial (12-15)</t>
-  </si>
-  <si>
-    <t>Frenk2021_safety_immunogenicity_and_efficacy_of_the_BNT162b2</t>
   </si>
   <si>
     <t>Cuba</t>
@@ -548,6 +545,34 @@
   </si>
   <si>
     <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clopper-Pearson</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poisson regression with robust error variance</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frenk2021_safety_immunogenicity_and_efficacy_of_the_BNT162b2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -731,9 +756,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -955,7 +981,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1107,7 +1133,7 @@
         <v>52</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>31</v>
@@ -1116,7 +1142,7 @@
         <v>32</v>
       </c>
       <c r="W2" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1172,7 +1198,7 @@
         <v>52</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>31</v>
@@ -1187,7 +1213,7 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
@@ -1223,7 +1249,7 @@
         <v>365</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>28</v>
@@ -1235,19 +1261,19 @@
         <v>1</v>
       </c>
       <c r="S4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="5" t="s">
-        <v>136</v>
+      <c r="W4" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="X4" s="1">
         <v>2</v>
@@ -1255,7 +1281,7 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -1290,10 +1316,10 @@
         <v>365</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>47</v>
@@ -1302,25 +1328,25 @@
         <v>1</v>
       </c>
       <c r="S5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -1355,37 +1381,37 @@
         <v>365</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R6" s="5">
         <v>1</v>
       </c>
       <c r="S6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>74</v>
@@ -1420,10 +1446,10 @@
         <v>365</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>28</v>
@@ -1432,28 +1458,28 @@
         <v>1</v>
       </c>
       <c r="S7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="5">
         <v>88.3</v>
@@ -1485,10 +1511,10 @@
         <v>365</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>28</v>
@@ -1497,25 +1523,25 @@
         <v>1</v>
       </c>
       <c r="S8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>75</v>
@@ -1550,10 +1576,10 @@
         <v>365</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>28</v>
@@ -1562,25 +1588,25 @@
         <v>1</v>
       </c>
       <c r="S9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>73</v>
@@ -1615,10 +1641,10 @@
         <v>365</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>28</v>
@@ -1627,19 +1653,19 @@
         <v>1</v>
       </c>
       <c r="S10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X10" s="3"/>
     </row>
@@ -1705,7 +1731,7 @@
         <v>32</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X11" s="1"/>
     </row>
@@ -1771,7 +1797,7 @@
         <v>32</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X12" s="1"/>
     </row>
@@ -1827,8 +1853,8 @@
       <c r="S13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="T13" s="5" t="s">
-        <v>30</v>
+      <c r="T13" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>31</v>
@@ -1837,7 +1863,7 @@
         <v>32</v>
       </c>
       <c r="W13" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -2176,7 +2202,7 @@
         <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="5">
         <v>70.400000000000006</v>
@@ -2205,7 +2231,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N19" s="5">
         <v>82</v>
@@ -2222,17 +2248,17 @@
       <c r="S19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T19" s="5" t="s">
-        <v>58</v>
+      <c r="T19" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="5" t="s">
-        <v>130</v>
+      <c r="W19" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="X19" s="1"/>
     </row>
@@ -2241,7 +2267,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="5">
         <v>81.5</v>
@@ -2270,7 +2296,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N20" s="5">
         <v>82</v>
@@ -2287,17 +2313,17 @@
       <c r="S20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T20" s="5" t="s">
-        <v>58</v>
+      <c r="T20" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X20" s="1"/>
     </row>
@@ -2353,8 +2379,8 @@
       <c r="S21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>79</v>
+      <c r="T21" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>31</v>
@@ -2362,8 +2388,8 @@
       <c r="V21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="12" t="s">
-        <v>101</v>
+      <c r="W21" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="X21" s="1"/>
     </row>
@@ -2419,8 +2445,8 @@
       <c r="S22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>58</v>
+      <c r="T22" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>31</v>
@@ -2486,7 +2512,7 @@
         <v>42</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>31</v>
@@ -2552,7 +2578,7 @@
         <v>42</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>31</v>
@@ -2617,8 +2643,8 @@
       <c r="S25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T25" s="3" t="s">
-        <v>58</v>
+      <c r="T25" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>31</v>
@@ -2684,7 +2710,7 @@
         <v>42</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>31</v>
@@ -2758,14 +2784,14 @@
       <c r="V27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W27" s="12" t="s">
-        <v>113</v>
+      <c r="W27" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>24</v>
@@ -2794,13 +2820,13 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N28" s="5">
         <v>171</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>28</v>
@@ -2812,25 +2838,25 @@
         <v>1</v>
       </c>
       <c r="S28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U28" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W28" s="5" t="s">
-        <v>142</v>
+      <c r="W28" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>24</v>
@@ -2859,13 +2885,13 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N29" s="5">
         <v>171</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>45</v>
@@ -2877,25 +2903,25 @@
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U29" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>24</v>
@@ -2924,13 +2950,13 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N30" s="5">
         <v>171</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>37</v>
@@ -2942,19 +2968,19 @@
         <v>1</v>
       </c>
       <c r="S30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U30" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="V30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X30" s="1"/>
     </row>
@@ -3011,7 +3037,7 @@
         <v>52</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>31</v>
@@ -3077,7 +3103,7 @@
         <v>52</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>31</v>
@@ -3143,7 +3169,7 @@
         <v>52</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>31</v>
@@ -3158,7 +3184,7 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>24</v>
@@ -3196,7 +3222,7 @@
         <v>58</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>28</v>
@@ -3206,25 +3232,25 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>24</v>
@@ -3262,7 +3288,7 @@
         <v>58</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>45</v>
@@ -3271,25 +3297,25 @@
         <v>45</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>24</v>
@@ -3327,34 +3353,34 @@
         <v>58</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>47</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
@@ -3392,28 +3418,28 @@
         <v>58</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>72</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X37" s="1"/>
     </row>
@@ -3469,8 +3495,8 @@
       <c r="S38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T38" s="5" t="s">
-        <v>79</v>
+      <c r="T38" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>31</v>
@@ -3820,7 +3846,7 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>73</v>
@@ -3852,7 +3878,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N44" s="5">
         <v>158</v>
@@ -3870,19 +3896,19 @@
         <v>1</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T44" s="5" t="s">
         <v>58</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V44" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3935,7 +3961,7 @@
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>35</v>
@@ -4002,7 +4028,7 @@
         <v>7</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>35</v>
@@ -4019,7 +4045,7 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>73</v>
@@ -4065,19 +4091,19 @@
         <v>1</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>111</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4135,7 +4161,7 @@
         <v>52</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>31</v>
@@ -4144,7 +4170,7 @@
         <v>32</v>
       </c>
       <c r="W48" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X48" s="5">
         <v>18</v>
@@ -4205,7 +4231,7 @@
         <v>52</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>31</v>
@@ -4214,7 +4240,7 @@
         <v>32</v>
       </c>
       <c r="W49" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4272,7 +4298,7 @@
         <v>52</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U50" s="3" t="s">
         <v>31</v>
@@ -4281,7 +4307,7 @@
         <v>32</v>
       </c>
       <c r="W50" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4337,7 +4363,7 @@
         <v>29</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U51" s="3" t="s">
         <v>31</v>
@@ -4346,12 +4372,12 @@
         <v>32</v>
       </c>
       <c r="W51" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -4389,10 +4415,10 @@
         <v>23</v>
       </c>
       <c r="O52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P52" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>28</v>
@@ -4402,21 +4428,21 @@
         <v>52</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W52" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
@@ -4454,7 +4480,7 @@
         <v>23</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>91</v>
@@ -4467,16 +4493,16 @@
         <v>52</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W53" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X53" s="5">
         <v>21</v>
@@ -4484,7 +4510,7 @@
     </row>
     <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -4522,34 +4548,34 @@
         <v>23</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W54" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -4587,10 +4613,10 @@
         <v>23</v>
       </c>
       <c r="O55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P55" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>28</v>
@@ -4600,21 +4626,21 @@
         <v>52</v>
       </c>
       <c r="T55" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W55" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -4652,7 +4678,7 @@
         <v>23</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>91</v>
@@ -4665,21 +4691,21 @@
         <v>52</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W56" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -4717,29 +4743,29 @@
         <v>23</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T57" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W57" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4797,7 +4823,7 @@
         <v>42</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>31</v>
@@ -4864,7 +4890,7 @@
         <v>42</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>31</v>
@@ -4929,7 +4955,7 @@
         <v>42</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>31</v>
@@ -4994,7 +5020,7 @@
         <v>52</v>
       </c>
       <c r="T61" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U61" s="3" t="s">
         <v>89</v>
@@ -5059,7 +5085,7 @@
         <v>52</v>
       </c>
       <c r="T62" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>89</v>
@@ -5124,7 +5150,7 @@
         <v>52</v>
       </c>
       <c r="T63" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U63" s="3" t="s">
         <v>89</v>
@@ -5240,10 +5266,10 @@
         <v>26</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R65" s="3"/>
       <c r="S65" s="3" t="s">
@@ -5253,13 +5279,13 @@
         <v>30</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V65" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W65" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X65" s="5">
         <v>24</v>
@@ -5319,13 +5345,13 @@
         <v>30</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W66" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X66" s="5">
         <v>25</v>
@@ -5336,7 +5362,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C67" s="5">
         <v>100</v>
@@ -5372,10 +5398,10 @@
         <v>26</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R67" s="3"/>
       <c r="S67" s="3" t="s">
@@ -5385,13 +5411,13 @@
         <v>30</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W67" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5461,7 +5487,7 @@
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>24</v>
@@ -5493,40 +5519,40 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N69" s="5">
         <v>227</v>
       </c>
       <c r="O69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P69" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="P69" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R69" s="5"/>
       <c r="S69" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="U69" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="T69" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="U69" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>24</v>
@@ -5558,40 +5584,40 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N70" s="5">
         <v>227</v>
       </c>
       <c r="O70" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P70" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="P70" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="U70" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="T70" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="U70" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>24</v>
@@ -5626,7 +5652,7 @@
     </row>
     <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>24</v>
@@ -5661,7 +5687,7 @@
     </row>
     <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>24</v>
@@ -5696,7 +5722,7 @@
     </row>
     <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>24</v>
@@ -5731,7 +5757,7 @@
     </row>
     <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>24</v>
@@ -5766,7 +5792,7 @@
     </row>
     <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>24</v>
@@ -5793,15 +5819,15 @@
         <v>28</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>73</v>
@@ -6982,7 +7008,7 @@
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{B012A48B-783B-4DCF-9ABA-04B30946AC8F}">
+      <autoFilter ref="A1:A1066" xr:uid="{D02E020D-030C-49DF-AC9C-927999A4802C}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB46690B-80B8-4CD3-A8C3-42BD4B8B5F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1B3DE5-FA66-4ED1-882C-863BA17890D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4815" yWindow="-18120" windowWidth="27405" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="187">
   <si>
     <t>Vaccine</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Baptista-Pike method</t>
   </si>
   <si>
-    <t>Logunov2021_safety_and_efficacy_SputnikV</t>
-  </si>
-  <si>
     <t>Severe</t>
   </si>
   <si>
@@ -274,306 +271,364 @@
     <t>Poisson regression with robust error variance</t>
   </si>
   <si>
+    <t>Novavax</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Heath2021_Efficacy_of_the_NVX-CoV2373</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Symptomatic Covid-19</t>
+  </si>
+  <si>
+    <t>Covid-19 illness</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
+  </si>
+  <si>
+    <t>Severe disease</t>
+  </si>
+  <si>
+    <t>27/12/2020</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>Ad5-nCOV</t>
+  </si>
+  <si>
+    <t>22/09/2020</t>
+  </si>
+  <si>
+    <t>Argentina, Chile, Mexico. Pakistan and russia</t>
+  </si>
+  <si>
+    <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
+  </si>
+  <si>
+    <t>Symptomatic infection-after 28 days</t>
+  </si>
+  <si>
+    <t>28/08/2020</t>
+  </si>
+  <si>
+    <t>US,Chile and Peru</t>
+  </si>
+  <si>
+    <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
+  </si>
+  <si>
+    <t>Symptomatic infection-CDC definition</t>
+  </si>
+  <si>
+    <t>Severe or critical</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Hospitalization</t>
+  </si>
+  <si>
+    <t>ICU admission</t>
+  </si>
+  <si>
+    <t>ICU</t>
+  </si>
+  <si>
+    <t>15/12/2020</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Covid-19 infection</t>
+  </si>
+  <si>
+    <t>Double sided Clopper-Pearson</t>
+  </si>
+  <si>
+    <t>Phase 3 clinical trial (12-15)</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Symptomatic SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>Pre-print</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Documented infection</t>
+  </si>
+  <si>
+    <t>Post Phase 3 study</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>AZD1222*</t>
+  </si>
+  <si>
+    <t>23/04/2020</t>
+  </si>
+  <si>
+    <t>UK, Brazil, South africa</t>
+  </si>
+  <si>
+    <t>Symptotic Covid-19</t>
+  </si>
+  <si>
+    <t>1- adj relative risk</t>
+  </si>
+  <si>
+    <t>Booster-dose</t>
+  </si>
+  <si>
+    <t>Voysey2021_Single-dose_administration_and_the_influence</t>
+  </si>
+  <si>
+    <t>31/05/2020</t>
+  </si>
+  <si>
+    <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
+  </si>
+  <si>
+    <t>Non beta</t>
+  </si>
+  <si>
+    <t>ZF2001</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
+  </si>
+  <si>
+    <t>1 - Incidence rate ratio</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
+  </si>
+  <si>
+    <t>Severe-Critical</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>CoVLP</t>
+  </si>
+  <si>
+    <t>15/03/2021</t>
+  </si>
+  <si>
+    <t>Argentina, Brazil, Canada, Mexico, US and UK</t>
+  </si>
+  <si>
+    <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
+  </si>
+  <si>
+    <t>ZyCov-D</t>
+  </si>
+  <si>
+    <t>16/01/2021</t>
+  </si>
+  <si>
+    <t>BNT162b2*</t>
+  </si>
+  <si>
+    <t>Ad26.COV2.S*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
+  </si>
+  <si>
+    <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
+  </si>
+  <si>
+    <t>Asymptomatic Infection</t>
+  </si>
+  <si>
+    <t>All vaccine</t>
+  </si>
+  <si>
+    <t>SOBERANA-02</t>
+  </si>
+  <si>
+    <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+  </si>
+  <si>
+    <t>SOBERANA Plus</t>
+  </si>
+  <si>
+    <t>Palacios2021_CoronaVac_efficacy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wald test based on the Cox proportional hazards model</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stratified Cox proportional hazards model</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cox proportional hazards model</t>
+  </si>
+  <si>
+    <t>Bayesian beta-binomial model</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polack2020_safety_and_efficacy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Odds ratio</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baden2021_efficacy_and_safety_mRNA_vaccine</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exact Poisson regression</t>
+  </si>
+  <si>
+    <t>Poisson regression</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dunkle2022_Efficacy_and_Safety_of_NVX_CoV_2373</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clopper-Pearson</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poisson regression with robust error variance</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frenk2021_safety_immunogenicity_and_efficacy_of_the_BNT162b2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heath2021_Efficacy_of_the_NVX-CoV2373</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khobragade2022_Efficacy_safety_and_immunogenicity_of_the_DNA_SAR</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logunov2021_safety_and_efficacy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baptista-Pike method</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moreira2022_Safety_and_efficacy_of_a_third_dose_of_BNT162b2.pdf</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double sided Clopper-Pearson</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanriover2021_Efficacy_and_safety_of_an_inactivated_whole-virion</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-incidence rate ratio</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person-time analysis</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thomas2021_Safety_and_Efficacy_of_the_BNT162b2_mRNA_Covid-19_vaccine_through_6_Months</t>
+  </si>
+  <si>
+    <t>Thomas2021_Safety_and_Efficacy_of_the_BNT162b2_mRNA_Covid-19_vaccine_through_6_Months</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>Voysey2021_Safety_and_efficacy_of</t>
-  </si>
-  <si>
-    <t>Novavax</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Heath2021_Efficacy_of_the_NVX-CoV2373</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Symptomatic Covid-19</t>
-  </si>
-  <si>
-    <t>Events per COVID-19- free person-years</t>
-  </si>
-  <si>
-    <t>Tanriover2021_Efficacy_and_safety_of_an_inactivated_whole-virion</t>
-  </si>
-  <si>
-    <t>Covid-19 illness</t>
-  </si>
-  <si>
-    <t>Phase 4</t>
-  </si>
-  <si>
-    <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
-  </si>
-  <si>
-    <t>Severe disease</t>
-  </si>
-  <si>
-    <t>27/12/2020</t>
-  </si>
-  <si>
-    <t>Infection</t>
-  </si>
-  <si>
-    <t>Ad5-nCOV</t>
-  </si>
-  <si>
-    <t>22/09/2020</t>
-  </si>
-  <si>
-    <t>Argentina, Chile, Mexico. Pakistan and russia</t>
-  </si>
-  <si>
-    <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
-  </si>
-  <si>
-    <t>Symptomatic infection-after 28 days</t>
-  </si>
-  <si>
-    <t>28/08/2020</t>
-  </si>
-  <si>
-    <t>US,Chile and Peru</t>
-  </si>
-  <si>
-    <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
-  </si>
-  <si>
-    <t>Symptomatic infection-CDC definition</t>
-  </si>
-  <si>
-    <t>Severe or critical</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>Hospitalization</t>
-  </si>
-  <si>
-    <t>ICU admission</t>
-  </si>
-  <si>
-    <t>ICU</t>
-  </si>
-  <si>
-    <t>15/12/2020</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Covid-19 infection</t>
-  </si>
-  <si>
-    <t>Double sided Clopper-Pearson</t>
-  </si>
-  <si>
-    <t>Phase 3 clinical trial (12-15)</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Symptomatic SARS-CoV-2</t>
-  </si>
-  <si>
-    <t>Pre-print</t>
-  </si>
-  <si>
-    <t>Death</t>
-  </si>
-  <si>
-    <t>Documented infection</t>
-  </si>
-  <si>
-    <t>Post Phase 3 study</t>
-  </si>
-  <si>
-    <t>Thomas2021_Six_month_safety_and_efficacy_of_the_BNT162b2</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>AZD1222*</t>
-  </si>
-  <si>
-    <t>23/04/2020</t>
-  </si>
-  <si>
-    <t>UK, Brazil, South africa</t>
-  </si>
-  <si>
-    <t>Symptotic Covid-19</t>
-  </si>
-  <si>
-    <t>1- adj relative risk</t>
-  </si>
-  <si>
-    <t>Booster-dose</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Voysey2021_Single-dose_administration_and_the_influence</t>
-  </si>
-  <si>
-    <t>31/05/2020</t>
-  </si>
-  <si>
-    <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
-  </si>
-  <si>
-    <t>Non beta</t>
-  </si>
-  <si>
-    <t>ZF2001</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
-  </si>
-  <si>
-    <t>1 - Incidence rate ratio</t>
-  </si>
-  <si>
-    <t>Phase 3</t>
-  </si>
-  <si>
-    <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
-  </si>
-  <si>
-    <t>Severe-Critical</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>CoVLP</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>Argentina, Brazil, Canada, Mexico, US and UK</t>
-  </si>
-  <si>
-    <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
-  </si>
-  <si>
-    <t>ZyCov-D</t>
-  </si>
-  <si>
-    <t>16/01/2021</t>
-  </si>
-  <si>
-    <t>Khobragade2022_Efficacy_safety_and_immunogenicity_of_the_DNA_SAR</t>
-  </si>
-  <si>
-    <t>BNT162b2*</t>
-  </si>
-  <si>
-    <t>Moreira2022_Safety_and_efficacy_of_a_third_dose_of_BNT162b2.pdf</t>
-  </si>
-  <si>
-    <t>Ad26.COV2.S*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
-  </si>
-  <si>
-    <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
-  </si>
-  <si>
-    <t>Asymptomatic Infection</t>
-  </si>
-  <si>
-    <t>All vaccine</t>
-  </si>
-  <si>
-    <t>Robust Poisson model</t>
-  </si>
-  <si>
-    <t>SOBERANA-02</t>
-  </si>
-  <si>
-    <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
-  </si>
-  <si>
-    <t>SOBERANA Plus</t>
-  </si>
-  <si>
-    <t>Palacios2021_CoronaVac_efficacy</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wald test based on the Cox proportional hazards model</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stratified Cox proportional hazards model</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cox proportional hazards model</t>
-  </si>
-  <si>
-    <t>Bayesian beta-binomial model</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polack2020_safety_and_efficacy</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Odds ratio</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baden2021_efficacy_and_safety_mRNA_vaccine</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exact Poisson regression</t>
-  </si>
-  <si>
-    <t>Poisson regression</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dunkle2022_Efficacy_and_Safety_of_NVX_CoV_2373</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clopper-Pearson</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poisson regression with robust error variance</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frenk2021_safety_immunogenicity_and_efficacy_of_the_BNT162b2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robust Poisson regression  model</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,7 +639,7 @@
     <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,21 +690,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -696,6 +739,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -730,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -747,19 +811,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -978,10 +1043,10 @@
   <dimension ref="A1:Z1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
+      <selection pane="bottomRight" activeCell="V76" sqref="V76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1078,7 +1143,7 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>24</v>
@@ -1120,20 +1185,20 @@
         <v>88</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>31</v>
@@ -1141,13 +1206,13 @@
       <c r="V2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="19" t="s">
-        <v>163</v>
+      <c r="W2" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -1156,10 +1221,10 @@
         <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4">
         <v>15210</v>
@@ -1168,7 +1233,7 @@
         <v>15210</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="4">
         <v>30</v>
@@ -1185,20 +1250,20 @@
         <v>88</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>31</v>
@@ -1206,14 +1271,14 @@
       <c r="V3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="19" t="s">
-        <v>57</v>
+      <c r="W3" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
@@ -1249,7 +1314,7 @@
         <v>365</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>28</v>
@@ -1261,19 +1326,19 @@
         <v>1</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="17" t="s">
-        <v>172</v>
+      <c r="W4" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="X4" s="1">
         <v>2</v>
@@ -1281,7 +1346,7 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -1316,37 +1381,37 @@
         <v>365</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R5" s="5">
         <v>1</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -1381,40 +1446,40 @@
         <v>365</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R6" s="5">
         <v>1</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5">
         <v>76.099999999999994</v>
@@ -1446,10 +1511,10 @@
         <v>365</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>28</v>
@@ -1458,28 +1523,28 @@
         <v>1</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C8" s="5">
         <v>88.3</v>
@@ -1511,10 +1576,10 @@
         <v>365</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>28</v>
@@ -1523,28 +1588,28 @@
         <v>1</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5">
         <v>75.2</v>
@@ -1576,10 +1641,10 @@
         <v>365</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>28</v>
@@ -1588,28 +1653,28 @@
         <v>1</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="5">
         <v>71.900000000000006</v>
@@ -1641,10 +1706,10 @@
         <v>365</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>28</v>
@@ -1653,25 +1718,25 @@
         <v>1</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>165</v>
+        <v>128</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -1703,26 +1768,26 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N11" s="5">
         <v>53</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>31</v>
@@ -1730,14 +1795,14 @@
       <c r="V11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="20" t="s">
-        <v>166</v>
+      <c r="W11" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -1769,26 +1834,26 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N12" s="5">
         <v>53</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>31</v>
@@ -1796,14 +1861,14 @@
       <c r="V12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="20" t="s">
-        <v>166</v>
+      <c r="W12" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="X12" s="1"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
@@ -1835,26 +1900,26 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" s="1">
         <v>52</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>168</v>
+        <v>68</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>31</v>
@@ -1862,14 +1927,14 @@
       <c r="V13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W13" s="21" t="s">
-        <v>167</v>
+      <c r="W13" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="X13" s="1"/>
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1901,23 +1966,23 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="1">
         <v>52</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>30</v>
@@ -1929,13 +1994,13 @@
         <v>32</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>24</v>
@@ -1967,23 +2032,23 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N15" s="1">
         <v>52</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>30</v>
@@ -1995,16 +2060,16 @@
         <v>32</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4">
         <v>70.8</v>
@@ -2033,23 +2098,23 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N16" s="1">
         <v>52</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>30</v>
@@ -2061,16 +2126,16 @@
         <v>32</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4">
         <v>65.2</v>
@@ -2099,23 +2164,23 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N17" s="1">
         <v>52</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>30</v>
@@ -2127,16 +2192,16 @@
         <v>32</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4">
         <v>90.1</v>
@@ -2165,23 +2230,23 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N18" s="1">
         <v>52</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>30</v>
@@ -2193,16 +2258,16 @@
         <v>32</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C19" s="5">
         <v>70.400000000000006</v>
@@ -2226,18 +2291,18 @@
         <v>40</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N19" s="5">
         <v>82</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>28</v>
@@ -2246,28 +2311,28 @@
         <v>28</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>165</v>
+        <v>41</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="17" t="s">
-        <v>169</v>
+      <c r="W19" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C20" s="5">
         <v>81.5</v>
@@ -2291,18 +2356,18 @@
         <v>80</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N20" s="5">
         <v>82</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>28</v>
@@ -2311,25 +2376,25 @@
         <v>28</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T20" s="18" t="s">
-        <v>165</v>
+        <v>41</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>24</v>
@@ -2361,26 +2426,26 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N21" s="5">
         <v>112</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T21" s="18" t="s">
-        <v>170</v>
+        <v>41</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>31</v>
@@ -2388,14 +2453,14 @@
       <c r="V21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="22" t="s">
-        <v>171</v>
+      <c r="W21" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>24</v>
@@ -2427,26 +2492,26 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N22" s="5">
         <v>112</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>170</v>
+        <v>41</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>31</v>
@@ -2454,14 +2519,14 @@
       <c r="V22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W22" s="12" t="s">
-        <v>101</v>
+      <c r="W22" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="X22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>24</v>
@@ -2493,26 +2558,26 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N23" s="5">
         <v>112</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>31</v>
@@ -2520,14 +2585,14 @@
       <c r="V23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W23" s="12" t="s">
-        <v>101</v>
+      <c r="W23" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
@@ -2559,26 +2624,26 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N24" s="5">
         <v>112</v>
       </c>
       <c r="O24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P24" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="Q24" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>31</v>
@@ -2586,14 +2651,14 @@
       <c r="V24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W24" s="12" t="s">
-        <v>101</v>
+      <c r="W24" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2625,26 +2690,26 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N25" s="5">
         <v>112</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>170</v>
+        <v>41</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>31</v>
@@ -2652,14 +2717,14 @@
       <c r="V25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W25" s="12" t="s">
-        <v>101</v>
+      <c r="W25" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="X25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -2691,26 +2756,26 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N26" s="5">
         <v>112</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>31</v>
@@ -2718,8 +2783,8 @@
       <c r="V26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W26" s="12" t="s">
-        <v>101</v>
+      <c r="W26" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="X26" s="1"/>
     </row>
@@ -2757,41 +2822,41 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N27" s="5">
         <v>28</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W27" s="22" t="s">
-        <v>173</v>
+      <c r="W27" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>24</v>
@@ -2820,13 +2885,13 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N28" s="5">
         <v>171</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>28</v>
@@ -2838,25 +2903,25 @@
         <v>1</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W28" s="17" t="s">
-        <v>174</v>
+      <c r="W28" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>24</v>
@@ -2885,43 +2950,43 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N29" s="5">
         <v>171</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R29" s="5">
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>24</v>
@@ -2933,7 +2998,7 @@
         <v>-63.7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="5">
         <v>12074</v>
@@ -2950,43 +3015,43 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N30" s="5">
         <v>171</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R30" s="5">
         <v>1</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W30" s="5" t="s">
-        <v>141</v>
+      <c r="W30" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -3018,26 +3083,26 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N31" s="5">
         <v>115</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>31</v>
@@ -3045,14 +3110,14 @@
       <c r="V31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W31" s="12" t="s">
-        <v>97</v>
+      <c r="W31" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -3084,26 +3149,26 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N32" s="5">
         <v>115</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>31</v>
@@ -3111,14 +3176,14 @@
       <c r="V32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W32" s="12" t="s">
-        <v>97</v>
+      <c r="W32" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -3139,10 +3204,10 @@
         <v>14568</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J33" s="5">
         <v>6.5</v>
@@ -3150,26 +3215,26 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N33" s="5">
         <v>115</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R33" s="3"/>
       <c r="S33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>31</v>
@@ -3177,14 +3242,14 @@
       <c r="V33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W33" s="12" t="s">
-        <v>97</v>
+      <c r="W33" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>24</v>
@@ -3211,18 +3276,18 @@
         <v>53</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>28</v>
@@ -3232,25 +3297,25 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>149</v>
+        <v>111</v>
+      </c>
+      <c r="W34" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>24</v>
@@ -3277,45 +3342,45 @@
         <v>44</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>24</v>
@@ -3342,45 +3407,45 @@
         <v>8</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
@@ -3407,45 +3472,45 @@
         <v>56</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="X37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3477,26 +3542,26 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N38" s="5">
         <v>61</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T38" s="17" t="s">
-        <v>170</v>
+        <v>41</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>31</v>
@@ -3504,17 +3569,17 @@
       <c r="V38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W38" s="5" t="s">
-        <v>83</v>
+      <c r="W38" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="X38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="5">
         <v>86.3</v>
@@ -3526,16 +3591,16 @@
         <v>93.5</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J39" s="5">
         <v>2</v>
@@ -3543,26 +3608,26 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N39" s="5">
         <v>61</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U39" s="3" t="s">
         <v>31</v>
@@ -3571,13 +3636,13 @@
         <v>32</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -3613,16 +3678,16 @@
         <v>44.7</v>
       </c>
       <c r="M40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="P40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>28</v>
@@ -3640,14 +3705,14 @@
       <c r="V40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W40" s="8" t="s">
-        <v>63</v>
+      <c r="W40" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -3683,16 +3748,16 @@
         <v>44.7</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="P41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>28</v>
@@ -3711,12 +3776,12 @@
         <v>32</v>
       </c>
       <c r="W41" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3725,10 +3790,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="4">
         <v>13465</v>
@@ -3737,7 +3802,7 @@
         <v>13458</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I42" s="4">
         <v>2</v>
@@ -3748,19 +3813,19 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="P42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3" t="s">
@@ -3776,12 +3841,12 @@
         <v>32</v>
       </c>
       <c r="W42" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3790,10 +3855,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="4">
         <v>13459</v>
@@ -3802,7 +3867,7 @@
         <v>13458</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43" s="4">
         <v>2</v>
@@ -3813,19 +3878,19 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="P43" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3" t="s">
@@ -3841,15 +3906,15 @@
         <v>32</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="5">
         <v>66.599999999999994</v>
@@ -3878,13 +3943,13 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N44" s="5">
         <v>158</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>28</v>
@@ -3896,19 +3961,19 @@
         <v>1</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W44" s="5" t="s">
-        <v>144</v>
+      <c r="W44" s="15" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3960,11 +4025,11 @@
         <v>28</v>
       </c>
       <c r="R45" s="3"/>
-      <c r="S45" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>35</v>
+      <c r="S45" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="T45" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>31</v>
@@ -3972,8 +4037,8 @@
       <c r="V45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W45" s="1" t="s">
-        <v>36</v>
+      <c r="W45" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4019,16 +4084,16 @@
         <v>34</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R46" s="3">
         <v>7</v>
       </c>
-      <c r="S46" s="18" t="s">
-        <v>162</v>
+      <c r="S46" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>35</v>
@@ -4039,16 +4104,16 @@
       <c r="V46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W46" s="1" t="s">
-        <v>36</v>
+      <c r="W46" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="5">
         <v>94.8</v>
@@ -4079,7 +4144,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>28</v>
@@ -4091,24 +4156,24 @@
         <v>1</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>111</v>
+        <v>128</v>
+      </c>
+      <c r="T47" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W47" s="5" t="s">
-        <v>146</v>
+      <c r="W47" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
@@ -4140,16 +4205,16 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N48" s="1">
         <v>148</v>
       </c>
       <c r="O48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>28</v>
@@ -4158,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T48" s="17" t="s">
-        <v>157</v>
+        <v>51</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>31</v>
@@ -4169,8 +4234,8 @@
       <c r="V48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W48" s="16" t="s">
-        <v>156</v>
+      <c r="W48" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="X48" s="5">
         <v>18</v>
@@ -4178,7 +4243,7 @@
     </row>
     <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -4210,28 +4275,28 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N49" s="1">
         <v>148</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R49" s="3">
         <v>4</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T49" s="17" t="s">
-        <v>157</v>
+        <v>51</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>31</v>
@@ -4239,13 +4304,13 @@
       <c r="V49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W49" s="16" t="s">
-        <v>156</v>
+      <c r="W49" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -4277,28 +4342,28 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N50" s="1">
         <v>148</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R50" s="3">
         <v>7</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T50" s="17" t="s">
-        <v>157</v>
+        <v>51</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="U50" s="3" t="s">
         <v>31</v>
@@ -4306,8 +4371,8 @@
       <c r="V50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W50" s="16" t="s">
-        <v>156</v>
+      <c r="W50" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4362,8 +4427,8 @@
       <c r="S51" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T51" s="17" t="s">
-        <v>160</v>
+      <c r="T51" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="U51" s="3" t="s">
         <v>31</v>
@@ -4371,13 +4436,13 @@
       <c r="V51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W51" s="18" t="s">
-        <v>161</v>
+      <c r="W51" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -4406,43 +4471,43 @@
       <c r="J52" s="5">
         <v>2</v>
       </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14">
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12">
         <v>44411</v>
       </c>
       <c r="N52" s="5">
         <v>23</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T52" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T52" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W52" s="12" t="s">
-        <v>154</v>
+        <v>111</v>
+      </c>
+      <c r="W52" s="20" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
@@ -4451,10 +4516,10 @@
         <v>63</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" s="5">
         <v>14371</v>
@@ -4471,38 +4536,38 @@
       <c r="J53" s="5">
         <v>2</v>
       </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14">
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12">
         <v>44411</v>
       </c>
       <c r="N53" s="5">
         <v>23</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T53" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W53" s="12" t="s">
-        <v>154</v>
+        <v>111</v>
+      </c>
+      <c r="W53" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="X53" s="5">
         <v>21</v>
@@ -4510,7 +4575,7 @@
     </row>
     <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -4519,10 +4584,10 @@
         <v>59</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F54" s="5">
         <v>14371</v>
@@ -4539,43 +4604,43 @@
       <c r="J54" s="5">
         <v>2</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14">
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12">
         <v>44411</v>
       </c>
       <c r="N54" s="5">
         <v>23</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T54" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W54" s="12" t="s">
-        <v>154</v>
+        <v>111</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -4604,43 +4669,43 @@
       <c r="J55" s="5">
         <v>2</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14">
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12">
         <v>44411</v>
       </c>
       <c r="N55" s="5">
         <v>23</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T55" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W55" s="12" t="s">
-        <v>154</v>
+        <v>111</v>
+      </c>
+      <c r="W55" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -4649,10 +4714,10 @@
         <v>100</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56" s="5">
         <v>13883</v>
@@ -4669,43 +4734,43 @@
       <c r="J56" s="5">
         <v>2</v>
       </c>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14">
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12">
         <v>44411</v>
       </c>
       <c r="N56" s="5">
         <v>23</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R56" s="3"/>
       <c r="S56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T56" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T56" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W56" s="12" t="s">
-        <v>154</v>
+        <v>111</v>
+      </c>
+      <c r="W56" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -4714,10 +4779,10 @@
         <v>100</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F57" s="5">
         <v>13883</v>
@@ -4734,43 +4799,43 @@
       <c r="J57" s="5">
         <v>2</v>
       </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14">
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12">
         <v>44411</v>
       </c>
       <c r="N57" s="5">
         <v>23</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T57" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T57" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W57" s="12" t="s">
-        <v>154</v>
+        <v>111</v>
+      </c>
+      <c r="W57" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>24</v>
@@ -4802,16 +4867,16 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N58" s="1">
         <v>123</v>
       </c>
       <c r="O58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="Q58" s="5" t="s">
         <v>28</v>
@@ -4820,10 +4885,10 @@
         <v>2</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>31</v>
@@ -4831,13 +4896,13 @@
       <c r="V58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W58" s="1" t="s">
-        <v>43</v>
+      <c r="W58" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>24</v>
@@ -4869,28 +4934,28 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N59" s="1">
         <v>123</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q59" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="R59" s="3">
         <v>4</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>31</v>
@@ -4899,12 +4964,12 @@
         <v>32</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>24</v>
@@ -4936,26 +5001,26 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N60" s="1">
         <v>123</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q60" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="R60" s="3"/>
       <c r="S60" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>31</v>
@@ -4964,12 +5029,12 @@
         <v>32</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -5007,34 +5072,34 @@
         <v>88</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R61" s="3"/>
       <c r="S61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T61" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T61" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="V61" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W61" s="13" t="s">
-        <v>90</v>
+      <c r="W61" s="22" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -5072,34 +5137,34 @@
         <v>88</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R62" s="3"/>
       <c r="S62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T62" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T62" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W62" s="12" t="s">
-        <v>90</v>
+      <c r="W62" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>24</v>
@@ -5137,34 +5202,34 @@
         <v>88</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q63" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="Q63" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="R63" s="3"/>
       <c r="S63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T63" s="17" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="T63" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="V63" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W63" s="12" t="s">
-        <v>90</v>
+      <c r="W63" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -5200,20 +5265,20 @@
         <v>113</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R64" s="3"/>
-      <c r="S64" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T64" s="11" t="s">
-        <v>86</v>
+      <c r="S64" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="T64" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="U64" s="3" t="s">
         <v>31</v>
@@ -5221,8 +5286,8 @@
       <c r="V64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W64" s="12" t="s">
-        <v>87</v>
+      <c r="W64" s="20" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5266,26 +5331,26 @@
         <v>26</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R65" s="3"/>
       <c r="S65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T65" s="5" t="s">
-        <v>30</v>
+      <c r="T65" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="V65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W65" s="12" t="s">
-        <v>119</v>
+      <c r="W65" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="X65" s="5">
         <v>24</v>
@@ -5332,10 +5397,10 @@
         <v>26</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R66" s="3"/>
       <c r="S66" s="3" t="s">
@@ -5345,13 +5410,13 @@
         <v>30</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W66" s="12" t="s">
-        <v>119</v>
+      <c r="W66" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="X66" s="5">
         <v>25</v>
@@ -5362,7 +5427,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C67" s="5">
         <v>100</v>
@@ -5380,10 +5445,10 @@
         <v>20794</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -5398,10 +5463,10 @@
         <v>26</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R67" s="3"/>
       <c r="S67" s="3" t="s">
@@ -5411,18 +5476,18 @@
         <v>30</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="V67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W67" s="12" t="s">
-        <v>119</v>
+      <c r="W67" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>24</v>
@@ -5454,26 +5519,26 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N68" s="1">
         <v>195</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q68" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R68" s="3"/>
       <c r="S68" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T68" s="5" t="s">
-        <v>79</v>
+        <v>41</v>
+      </c>
+      <c r="T68" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="U68" s="3" t="s">
         <v>31</v>
@@ -5481,13 +5546,13 @@
       <c r="V68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W68" s="1" t="s">
-        <v>80</v>
+      <c r="W68" s="19" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>24</v>
@@ -5519,40 +5584,40 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N69" s="5">
         <v>227</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R69" s="5"/>
       <c r="S69" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="T69" s="5" t="s">
-        <v>152</v>
+        <v>120</v>
+      </c>
+      <c r="T69" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W69" s="5" t="s">
-        <v>127</v>
+      <c r="W69" s="15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>24</v>
@@ -5584,40 +5649,40 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N70" s="5">
         <v>227</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="T70" s="5" t="s">
-        <v>152</v>
+        <v>120</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>24</v>
@@ -5652,7 +5717,7 @@
     </row>
     <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>24</v>
@@ -5679,15 +5744,15 @@
         <v>587</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>24</v>
@@ -5714,15 +5779,15 @@
         <v>375</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>24</v>
@@ -5749,15 +5814,15 @@
         <v>230</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>24</v>
@@ -5784,15 +5849,15 @@
         <v>119</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>24</v>
@@ -5819,18 +5884,18 @@
         <v>28</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="5">
         <v>76.66</v>
@@ -5841,16 +5906,16 @@
       <c r="E77" s="5">
         <v>81.52</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="13">
         <v>38502</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="13">
         <v>38409</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="13">
         <v>87</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="13">
         <v>372</v>
       </c>
       <c r="P77" s="5" t="s">
@@ -5932,9 +5997,9 @@
     </row>
     <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="97" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
@@ -5943,9 +6008,9 @@
     </row>
     <row r="98" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
@@ -5954,9 +6019,9 @@
     </row>
     <row r="99" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
@@ -5965,9 +6030,9 @@
     </row>
     <row r="100" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
@@ -5976,9 +6041,9 @@
     </row>
     <row r="101" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
@@ -6003,15 +6068,15 @@
       <c r="M104" s="10"/>
     </row>
     <row r="105" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
       <c r="Q105" s="3"/>
     </row>
     <row r="106" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
       <c r="Q106" s="3"/>
     </row>
     <row r="107" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7008,7 +7073,7 @@
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{D02E020D-030C-49DF-AC9C-927999A4802C}">
+      <autoFilter ref="A1:A1066" xr:uid="{979A69CE-BBD4-4B80-969D-8A4750ACE166}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>
@@ -7035,7 +7100,7 @@
       </extLst>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1B3DE5-FA66-4ED1-882C-863BA17890D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276D3454-DB1B-4BEE-B60C-4A95F24CE874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4815" yWindow="-18120" windowWidth="27405" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="186">
   <si>
     <t>Vaccine</t>
   </si>
@@ -486,10 +486,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Stratified Cox proportional hazards model</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Cox proportional hazards model</t>
   </si>
   <si>
@@ -627,7 +623,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Robust Poisson regression  model</t>
+    <t>Cox proportional hazards model</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1043,10 +1039,10 @@
   <dimension ref="A1:Z1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V76" sqref="V76"/>
+      <selection pane="bottomRight" activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1198,7 +1194,7 @@
         <v>51</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>31</v>
@@ -1207,7 +1203,7 @@
         <v>32</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1263,7 +1259,7 @@
         <v>51</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>31</v>
@@ -1329,7 +1325,7 @@
         <v>128</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>129</v>
@@ -1338,7 +1334,7 @@
         <v>32</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X4" s="1">
         <v>2</v>
@@ -1396,7 +1392,7 @@
         <v>128</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>129</v>
@@ -1461,7 +1457,7 @@
         <v>128</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>129</v>
@@ -1526,7 +1522,7 @@
         <v>128</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>129</v>
@@ -1591,7 +1587,7 @@
         <v>128</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>129</v>
@@ -1656,7 +1652,7 @@
         <v>128</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>129</v>
@@ -1721,7 +1717,7 @@
         <v>128</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>129</v>
@@ -1796,7 +1792,7 @@
         <v>32</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X11" s="1"/>
     </row>
@@ -1862,7 +1858,7 @@
         <v>32</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X12" s="1"/>
     </row>
@@ -1919,7 +1915,7 @@
         <v>68</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>31</v>
@@ -1928,7 +1924,7 @@
         <v>32</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -2314,7 +2310,7 @@
         <v>41</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>114</v>
@@ -2323,7 +2319,7 @@
         <v>32</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X19" s="1"/>
     </row>
@@ -2379,7 +2375,7 @@
         <v>41</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>114</v>
@@ -2445,7 +2441,7 @@
         <v>41</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>31</v>
@@ -2454,7 +2450,7 @@
         <v>32</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X21" s="1"/>
     </row>
@@ -2511,7 +2507,7 @@
         <v>41</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>31</v>
@@ -2519,8 +2515,8 @@
       <c r="V22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>97</v>
+      <c r="W22" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="X22" s="1"/>
     </row>
@@ -2577,7 +2573,7 @@
         <v>41</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>31</v>
@@ -2585,8 +2581,8 @@
       <c r="V23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>97</v>
+      <c r="W23" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="X23" s="1"/>
     </row>
@@ -2643,7 +2639,7 @@
         <v>41</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>31</v>
@@ -2709,7 +2705,7 @@
         <v>41</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>31</v>
@@ -2775,7 +2771,7 @@
         <v>41</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>31</v>
@@ -2850,7 +2846,7 @@
         <v>32</v>
       </c>
       <c r="W27" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X27" s="1"/>
     </row>
@@ -2906,7 +2902,7 @@
         <v>128</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>129</v>
@@ -2915,7 +2911,7 @@
         <v>32</v>
       </c>
       <c r="W28" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X28" s="1"/>
     </row>
@@ -2971,7 +2967,7 @@
         <v>128</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>129</v>
@@ -3036,7 +3032,7 @@
         <v>128</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>129</v>
@@ -3045,7 +3041,7 @@
         <v>32</v>
       </c>
       <c r="W30" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X30" s="1"/>
     </row>
@@ -3102,7 +3098,7 @@
         <v>51</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>31</v>
@@ -3111,7 +3107,7 @@
         <v>32</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X31" s="1"/>
     </row>
@@ -3168,7 +3164,7 @@
         <v>51</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>31</v>
@@ -3234,7 +3230,7 @@
         <v>51</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>31</v>
@@ -3300,7 +3296,7 @@
         <v>128</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>121</v>
@@ -3309,7 +3305,7 @@
         <v>111</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z34" s="1"/>
     </row>
@@ -3365,7 +3361,7 @@
         <v>128</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>121</v>
@@ -3430,7 +3426,7 @@
         <v>128</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>121</v>
@@ -3495,7 +3491,7 @@
         <v>128</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>121</v>
@@ -3561,7 +3557,7 @@
         <v>41</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>31</v>
@@ -3570,7 +3566,7 @@
         <v>32</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X38" s="1"/>
     </row>
@@ -3706,7 +3702,7 @@
         <v>32</v>
       </c>
       <c r="W40" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X40" s="1"/>
     </row>
@@ -3973,7 +3969,7 @@
         <v>32</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4026,10 +4022,10 @@
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T45" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>31</v>
@@ -4038,7 +4034,7 @@
         <v>32</v>
       </c>
       <c r="W45" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4093,7 +4089,7 @@
         <v>7</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>35</v>
@@ -4105,7 +4101,7 @@
         <v>32</v>
       </c>
       <c r="W46" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4159,7 +4155,7 @@
         <v>128</v>
       </c>
       <c r="T47" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>121</v>
@@ -4168,7 +4164,7 @@
         <v>32</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4428,7 +4424,7 @@
         <v>29</v>
       </c>
       <c r="T51" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U51" s="3" t="s">
         <v>31</v>
@@ -4437,7 +4433,7 @@
         <v>32</v>
       </c>
       <c r="W51" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4493,7 +4489,7 @@
         <v>51</v>
       </c>
       <c r="T52" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>31</v>
@@ -4502,7 +4498,7 @@
         <v>111</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4558,7 +4554,7 @@
         <v>51</v>
       </c>
       <c r="T53" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U53" s="3" t="s">
         <v>31</v>
@@ -4626,7 +4622,7 @@
         <v>51</v>
       </c>
       <c r="T54" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>31</v>
@@ -4691,7 +4687,7 @@
         <v>51</v>
       </c>
       <c r="T55" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U55" s="3" t="s">
         <v>31</v>
@@ -4756,7 +4752,7 @@
         <v>51</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>31</v>
@@ -4821,7 +4817,7 @@
         <v>51</v>
       </c>
       <c r="T57" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>31</v>
@@ -4888,7 +4884,7 @@
         <v>41</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>31</v>
@@ -4897,7 +4893,7 @@
         <v>32</v>
       </c>
       <c r="W58" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4955,7 +4951,7 @@
         <v>41</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>31</v>
@@ -5020,7 +5016,7 @@
         <v>41</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>31</v>
@@ -5085,7 +5081,7 @@
         <v>51</v>
       </c>
       <c r="T61" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U61" s="3" t="s">
         <v>85</v>
@@ -5094,7 +5090,7 @@
         <v>32</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5150,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="T62" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>85</v>
@@ -5215,7 +5211,7 @@
         <v>51</v>
       </c>
       <c r="T63" s="15" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="U63" s="3" t="s">
         <v>85</v>
@@ -5275,10 +5271,10 @@
       </c>
       <c r="R64" s="3"/>
       <c r="S64" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="T64" s="23" t="s">
         <v>180</v>
-      </c>
-      <c r="T64" s="23" t="s">
-        <v>181</v>
       </c>
       <c r="U64" s="3" t="s">
         <v>31</v>
@@ -5287,7 +5283,7 @@
         <v>32</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5341,7 +5337,7 @@
         <v>29</v>
       </c>
       <c r="T65" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U65" s="3" t="s">
         <v>114</v>
@@ -5350,7 +5346,7 @@
         <v>32</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X65" s="5">
         <v>24</v>
@@ -5416,7 +5412,7 @@
         <v>32</v>
       </c>
       <c r="W66" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X66" s="5">
         <v>25</v>
@@ -5482,7 +5478,7 @@
         <v>32</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5538,7 +5534,7 @@
         <v>41</v>
       </c>
       <c r="T68" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U68" s="3" t="s">
         <v>31</v>
@@ -5547,7 +5543,7 @@
         <v>32</v>
       </c>
       <c r="W68" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5603,7 +5599,7 @@
         <v>120</v>
       </c>
       <c r="T69" s="15" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>121</v>
@@ -5612,7 +5608,7 @@
         <v>32</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5668,7 +5664,7 @@
         <v>120</v>
       </c>
       <c r="T70" s="15" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>121</v>
@@ -7073,7 +7069,7 @@
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{979A69CE-BBD4-4B80-969D-8A4750ACE166}">
+      <autoFilter ref="A1:A1066" xr:uid="{CF0BEDC2-9DC7-494C-B281-DDC53F74261E}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276D3454-DB1B-4BEE-B60C-4A95F24CE874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23E7DF-A119-4B07-B9FC-33CCF39B70E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4815" yWindow="-18120" windowWidth="27405" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="187">
   <si>
     <t>Vaccine</t>
   </si>
@@ -482,10 +482,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Wald test based on the Cox proportional hazards model</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Cox proportional hazards model</t>
   </si>
   <si>
@@ -624,6 +620,14 @@
   </si>
   <si>
     <t>Cox proportional hazards model</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wald</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1- adj relative risk</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1039,10 +1043,10 @@
   <dimension ref="A1:Z1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q42" sqref="Q42"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1194,7 +1198,7 @@
         <v>51</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>31</v>
@@ -1203,7 +1207,7 @@
         <v>32</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1259,7 +1263,7 @@
         <v>51</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>31</v>
@@ -1325,7 +1329,7 @@
         <v>128</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>129</v>
@@ -1334,7 +1338,7 @@
         <v>32</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X4" s="1">
         <v>2</v>
@@ -1392,7 +1396,7 @@
         <v>128</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>129</v>
@@ -1457,7 +1461,7 @@
         <v>128</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>129</v>
@@ -1522,7 +1526,7 @@
         <v>128</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>129</v>
@@ -1587,7 +1591,7 @@
         <v>128</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>129</v>
@@ -1652,7 +1656,7 @@
         <v>128</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>129</v>
@@ -1717,7 +1721,7 @@
         <v>128</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>129</v>
@@ -1792,7 +1796,7 @@
         <v>32</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X11" s="1"/>
     </row>
@@ -1858,7 +1862,7 @@
         <v>32</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X12" s="1"/>
     </row>
@@ -1915,7 +1919,7 @@
         <v>68</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>31</v>
@@ -1924,7 +1928,7 @@
         <v>32</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -2310,7 +2314,7 @@
         <v>41</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>114</v>
@@ -2319,7 +2323,7 @@
         <v>32</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X19" s="1"/>
     </row>
@@ -2337,7 +2341,7 @@
         <v>67.900000000000006</v>
       </c>
       <c r="E20" s="5">
-        <v>80.400000000000006</v>
+        <v>89.4</v>
       </c>
       <c r="F20" s="5">
         <v>4244</v>
@@ -2375,7 +2379,7 @@
         <v>41</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>114</v>
@@ -2441,7 +2445,7 @@
         <v>41</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>31</v>
@@ -2450,7 +2454,7 @@
         <v>32</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X21" s="1"/>
     </row>
@@ -2507,7 +2511,7 @@
         <v>41</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>31</v>
@@ -2516,7 +2520,7 @@
         <v>32</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X22" s="1"/>
     </row>
@@ -2573,7 +2577,7 @@
         <v>41</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>31</v>
@@ -2582,7 +2586,7 @@
         <v>32</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X23" s="1"/>
     </row>
@@ -2639,7 +2643,7 @@
         <v>41</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>31</v>
@@ -2705,7 +2709,7 @@
         <v>41</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>31</v>
@@ -2771,7 +2775,7 @@
         <v>41</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>31</v>
@@ -2846,7 +2850,7 @@
         <v>32</v>
       </c>
       <c r="W27" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X27" s="1"/>
     </row>
@@ -2902,7 +2906,7 @@
         <v>128</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>129</v>
@@ -2911,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="W28" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X28" s="1"/>
     </row>
@@ -2967,7 +2971,7 @@
         <v>128</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>129</v>
@@ -3032,7 +3036,7 @@
         <v>128</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>129</v>
@@ -3041,7 +3045,7 @@
         <v>32</v>
       </c>
       <c r="W30" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X30" s="1"/>
     </row>
@@ -3098,7 +3102,7 @@
         <v>51</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>31</v>
@@ -3107,7 +3111,7 @@
         <v>32</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X31" s="1"/>
     </row>
@@ -3164,7 +3168,7 @@
         <v>51</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>31</v>
@@ -3230,7 +3234,7 @@
         <v>51</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>31</v>
@@ -3296,7 +3300,7 @@
         <v>128</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>121</v>
@@ -3305,7 +3309,7 @@
         <v>111</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z34" s="1"/>
     </row>
@@ -3361,7 +3365,7 @@
         <v>128</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>121</v>
@@ -3426,7 +3430,7 @@
         <v>128</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>121</v>
@@ -3491,7 +3495,7 @@
         <v>128</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>121</v>
@@ -3557,7 +3561,7 @@
         <v>41</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>31</v>
@@ -3566,7 +3570,7 @@
         <v>32</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X38" s="1"/>
     </row>
@@ -3702,7 +3706,7 @@
         <v>32</v>
       </c>
       <c r="W40" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X40" s="1"/>
     </row>
@@ -3969,7 +3973,7 @@
         <v>32</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4022,10 +4026,10 @@
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T45" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>31</v>
@@ -4034,7 +4038,7 @@
         <v>32</v>
       </c>
       <c r="W45" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4089,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>35</v>
@@ -4101,7 +4105,7 @@
         <v>32</v>
       </c>
       <c r="W46" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4155,7 +4159,7 @@
         <v>128</v>
       </c>
       <c r="T47" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>121</v>
@@ -4164,7 +4168,7 @@
         <v>32</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4222,7 +4226,7 @@
         <v>51</v>
       </c>
       <c r="T48" s="15" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>31</v>
@@ -4292,7 +4296,7 @@
         <v>51</v>
       </c>
       <c r="T49" s="15" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>31</v>
@@ -4359,7 +4363,7 @@
         <v>51</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="U50" s="3" t="s">
         <v>31</v>
@@ -4424,7 +4428,7 @@
         <v>29</v>
       </c>
       <c r="T51" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U51" s="3" t="s">
         <v>31</v>
@@ -4433,7 +4437,7 @@
         <v>32</v>
       </c>
       <c r="W51" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4489,7 +4493,7 @@
         <v>51</v>
       </c>
       <c r="T52" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>31</v>
@@ -4498,7 +4502,7 @@
         <v>111</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4554,7 +4558,7 @@
         <v>51</v>
       </c>
       <c r="T53" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U53" s="3" t="s">
         <v>31</v>
@@ -4622,7 +4626,7 @@
         <v>51</v>
       </c>
       <c r="T54" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>31</v>
@@ -4687,7 +4691,7 @@
         <v>51</v>
       </c>
       <c r="T55" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U55" s="3" t="s">
         <v>31</v>
@@ -4752,7 +4756,7 @@
         <v>51</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>31</v>
@@ -4817,7 +4821,7 @@
         <v>51</v>
       </c>
       <c r="T57" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>31</v>
@@ -4884,7 +4888,7 @@
         <v>41</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>31</v>
@@ -4893,7 +4897,7 @@
         <v>32</v>
       </c>
       <c r="W58" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4951,7 +4955,7 @@
         <v>41</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>31</v>
@@ -5016,7 +5020,7 @@
         <v>41</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>31</v>
@@ -5081,7 +5085,7 @@
         <v>51</v>
       </c>
       <c r="T61" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U61" s="3" t="s">
         <v>85</v>
@@ -5090,7 +5094,7 @@
         <v>32</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5146,7 +5150,7 @@
         <v>51</v>
       </c>
       <c r="T62" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>85</v>
@@ -5211,7 +5215,7 @@
         <v>51</v>
       </c>
       <c r="T63" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U63" s="3" t="s">
         <v>85</v>
@@ -5271,10 +5275,10 @@
       </c>
       <c r="R64" s="3"/>
       <c r="S64" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="T64" s="23" t="s">
         <v>179</v>
-      </c>
-      <c r="T64" s="23" t="s">
-        <v>180</v>
       </c>
       <c r="U64" s="3" t="s">
         <v>31</v>
@@ -5283,7 +5287,7 @@
         <v>32</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5337,7 +5341,7 @@
         <v>29</v>
       </c>
       <c r="T65" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U65" s="3" t="s">
         <v>114</v>
@@ -5346,7 +5350,7 @@
         <v>32</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X65" s="5">
         <v>24</v>
@@ -5412,7 +5416,7 @@
         <v>32</v>
       </c>
       <c r="W66" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X66" s="5">
         <v>25</v>
@@ -5478,7 +5482,7 @@
         <v>32</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5534,7 +5538,7 @@
         <v>41</v>
       </c>
       <c r="T68" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U68" s="3" t="s">
         <v>31</v>
@@ -5543,7 +5547,7 @@
         <v>32</v>
       </c>
       <c r="W68" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5595,11 +5599,11 @@
         <v>28</v>
       </c>
       <c r="R69" s="5"/>
-      <c r="S69" s="5" t="s">
-        <v>120</v>
+      <c r="S69" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="T69" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>121</v>
@@ -5608,7 +5612,7 @@
         <v>32</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5664,7 +5668,7 @@
         <v>120</v>
       </c>
       <c r="T70" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>121</v>
@@ -7069,7 +7073,7 @@
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{CF0BEDC2-9DC7-494C-B281-DDC53F74261E}">
+      <autoFilter ref="A1:A1066" xr:uid="{90AB38B8-070C-46DE-BEDB-22963BD4FFF7}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23E7DF-A119-4B07-B9FC-33CCF39B70E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B6C96-B41A-4953-94C0-8FBC70F1DF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4815" yWindow="-18120" windowWidth="27405" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="186">
   <si>
     <t>Vaccine</t>
   </si>
@@ -292,9 +292,6 @@
     <t>Phase 4</t>
   </si>
   <si>
-    <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
-  </si>
-  <si>
     <t>Severe disease</t>
   </si>
   <si>
@@ -470,9 +467,6 @@
   </si>
   <si>
     <t>SOBERANA-02</t>
-  </si>
-  <si>
-    <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
   </si>
   <si>
     <t>SOBERANA Plus</t>
@@ -580,10 +574,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -628,6 +618,14 @@
   </si>
   <si>
     <t>1- adj relative risk</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>El2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1043,10 +1041,10 @@
   <dimension ref="A1:Z1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="W57" sqref="W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1198,7 +1196,7 @@
         <v>51</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>31</v>
@@ -1207,7 +1205,7 @@
         <v>32</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1263,7 +1261,7 @@
         <v>51</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>31</v>
@@ -1278,7 +1276,7 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
@@ -1314,7 +1312,7 @@
         <v>365</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>28</v>
@@ -1326,19 +1324,19 @@
         <v>1</v>
       </c>
       <c r="S4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="X4" s="1">
         <v>2</v>
@@ -1346,7 +1344,7 @@
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -1381,10 +1379,10 @@
         <v>365</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>46</v>
@@ -1393,25 +1391,25 @@
         <v>1</v>
       </c>
       <c r="S5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -1446,37 +1444,37 @@
         <v>365</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R6" s="5">
         <v>1</v>
       </c>
       <c r="S6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>73</v>
@@ -1511,10 +1509,10 @@
         <v>365</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>28</v>
@@ -1523,28 +1521,28 @@
         <v>1</v>
       </c>
       <c r="S7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5">
         <v>88.3</v>
@@ -1576,10 +1574,10 @@
         <v>365</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>28</v>
@@ -1588,25 +1586,25 @@
         <v>1</v>
       </c>
       <c r="S8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>74</v>
@@ -1641,10 +1639,10 @@
         <v>365</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>28</v>
@@ -1653,25 +1651,25 @@
         <v>1</v>
       </c>
       <c r="S9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>72</v>
@@ -1706,10 +1704,10 @@
         <v>365</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>28</v>
@@ -1718,19 +1716,19 @@
         <v>1</v>
       </c>
       <c r="S10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X10" s="3"/>
     </row>
@@ -1768,7 +1766,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N11" s="5">
         <v>53</v>
@@ -1777,7 +1775,7 @@
         <v>55</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>28</v>
@@ -1796,7 +1794,7 @@
         <v>32</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X11" s="1"/>
     </row>
@@ -1834,7 +1832,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" s="5">
         <v>53</v>
@@ -1862,7 +1860,7 @@
         <v>32</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X12" s="1"/>
     </row>
@@ -1919,7 +1917,7 @@
         <v>68</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>31</v>
@@ -1928,7 +1926,7 @@
         <v>32</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X13" s="1"/>
     </row>
@@ -2267,7 +2265,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="5">
         <v>70.400000000000006</v>
@@ -2296,7 +2294,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N19" s="5">
         <v>82</v>
@@ -2314,16 +2312,16 @@
         <v>41</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X19" s="1"/>
     </row>
@@ -2332,7 +2330,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="5">
         <v>81.5</v>
@@ -2361,7 +2359,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N20" s="5">
         <v>82</v>
@@ -2379,16 +2377,16 @@
         <v>41</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X20" s="1"/>
     </row>
@@ -2426,13 +2424,13 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N21" s="5">
         <v>112</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>40</v>
@@ -2445,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>31</v>
@@ -2454,7 +2452,7 @@
         <v>32</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X21" s="1"/>
     </row>
@@ -2492,16 +2490,16 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N22" s="5">
         <v>112</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>28</v>
@@ -2511,7 +2509,7 @@
         <v>41</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>31</v>
@@ -2520,7 +2518,7 @@
         <v>32</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X22" s="1"/>
     </row>
@@ -2558,16 +2556,16 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N23" s="5">
         <v>112</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>46</v>
@@ -2577,7 +2575,7 @@
         <v>41</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>31</v>
@@ -2586,7 +2584,7 @@
         <v>32</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X23" s="1"/>
     </row>
@@ -2624,26 +2622,26 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N24" s="5">
         <v>112</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>31</v>
@@ -2652,7 +2650,7 @@
         <v>32</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X24" s="1"/>
     </row>
@@ -2690,26 +2688,26 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N25" s="5">
         <v>112</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>31</v>
@@ -2718,7 +2716,7 @@
         <v>32</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X25" s="1"/>
     </row>
@@ -2756,26 +2754,26 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N26" s="5">
         <v>112</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="5" t="s">
         <v>41</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>31</v>
@@ -2784,7 +2782,7 @@
         <v>32</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X26" s="1"/>
     </row>
@@ -2822,16 +2820,16 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N27" s="5">
         <v>28</v>
       </c>
       <c r="O27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>28</v>
@@ -2841,22 +2839,22 @@
         <v>41</v>
       </c>
       <c r="T27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U27" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W27" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>24</v>
@@ -2885,13 +2883,13 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N28" s="5">
         <v>171</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>28</v>
@@ -2903,25 +2901,25 @@
         <v>1</v>
       </c>
       <c r="S28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U28" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W28" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>24</v>
@@ -2950,13 +2948,13 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N29" s="5">
         <v>171</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>44</v>
@@ -2968,25 +2966,25 @@
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U29" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>24</v>
@@ -3015,13 +3013,13 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N30" s="5">
         <v>171</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>36</v>
@@ -3033,25 +3031,25 @@
         <v>1</v>
       </c>
       <c r="S30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="U30" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="T30" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="V30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W30" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -3083,13 +3081,13 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N31" s="5">
         <v>115</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>40</v>
@@ -3102,7 +3100,7 @@
         <v>51</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>31</v>
@@ -3111,13 +3109,13 @@
         <v>32</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -3149,16 +3147,16 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N32" s="5">
         <v>115</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>28</v>
@@ -3168,7 +3166,7 @@
         <v>51</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>31</v>
@@ -3177,13 +3175,13 @@
         <v>32</v>
       </c>
       <c r="W32" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -3215,16 +3213,16 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N33" s="5">
         <v>115</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>36</v>
@@ -3234,7 +3232,7 @@
         <v>51</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>31</v>
@@ -3243,13 +3241,13 @@
         <v>32</v>
       </c>
       <c r="W33" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>24</v>
@@ -3287,7 +3285,7 @@
         <v>57</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>28</v>
@@ -3297,25 +3295,25 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>24</v>
@@ -3353,7 +3351,7 @@
         <v>57</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>44</v>
@@ -3362,25 +3360,25 @@
         <v>44</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>24</v>
@@ -3418,34 +3416,34 @@
         <v>57</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>46</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
@@ -3483,28 +3481,28 @@
         <v>57</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>71</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X37" s="1"/>
     </row>
@@ -3561,7 +3559,7 @@
         <v>41</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>31</v>
@@ -3570,7 +3568,7 @@
         <v>32</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X38" s="1"/>
     </row>
@@ -3706,7 +3704,7 @@
         <v>32</v>
       </c>
       <c r="W40" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X40" s="1"/>
     </row>
@@ -3911,7 +3909,7 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>72</v>
@@ -3943,7 +3941,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" s="5">
         <v>158</v>
@@ -3961,19 +3959,19 @@
         <v>1</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V44" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4026,10 +4024,10 @@
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T45" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>31</v>
@@ -4038,7 +4036,7 @@
         <v>32</v>
       </c>
       <c r="W45" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4093,7 +4091,7 @@
         <v>7</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>35</v>
@@ -4105,12 +4103,12 @@
         <v>32</v>
       </c>
       <c r="W46" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>72</v>
@@ -4144,7 +4142,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>28</v>
@@ -4156,19 +4154,19 @@
         <v>1</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T47" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4226,7 +4224,7 @@
         <v>51</v>
       </c>
       <c r="T48" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>31</v>
@@ -4235,7 +4233,7 @@
         <v>32</v>
       </c>
       <c r="W48" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X48" s="5">
         <v>18</v>
@@ -4296,7 +4294,7 @@
         <v>51</v>
       </c>
       <c r="T49" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>31</v>
@@ -4305,7 +4303,7 @@
         <v>32</v>
       </c>
       <c r="W49" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4363,7 +4361,7 @@
         <v>51</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U50" s="3" t="s">
         <v>31</v>
@@ -4372,7 +4370,7 @@
         <v>32</v>
       </c>
       <c r="W50" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4428,7 +4426,7 @@
         <v>29</v>
       </c>
       <c r="T51" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U51" s="3" t="s">
         <v>31</v>
@@ -4437,12 +4435,12 @@
         <v>32</v>
       </c>
       <c r="W51" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -4480,10 +4478,10 @@
         <v>23</v>
       </c>
       <c r="O52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P52" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>28</v>
@@ -4493,21 +4491,21 @@
         <v>51</v>
       </c>
       <c r="T52" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W52" s="20" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
@@ -4545,10 +4543,10 @@
         <v>23</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>36</v>
@@ -4558,16 +4556,16 @@
         <v>51</v>
       </c>
       <c r="T53" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W53" s="11" t="s">
-        <v>146</v>
+        <v>110</v>
+      </c>
+      <c r="W53" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="X53" s="5">
         <v>21</v>
@@ -4575,7 +4573,7 @@
     </row>
     <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -4613,34 +4611,34 @@
         <v>23</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="1" t="s">
         <v>51</v>
       </c>
       <c r="T54" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W54" s="11" t="s">
-        <v>146</v>
+        <v>110</v>
+      </c>
+      <c r="W54" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -4678,10 +4676,10 @@
         <v>23</v>
       </c>
       <c r="O55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P55" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>28</v>
@@ -4691,21 +4689,21 @@
         <v>51</v>
       </c>
       <c r="T55" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W55" s="11" t="s">
-        <v>146</v>
+        <v>110</v>
+      </c>
+      <c r="W55" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -4743,10 +4741,10 @@
         <v>23</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>36</v>
@@ -4756,21 +4754,21 @@
         <v>51</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W56" s="11" t="s">
-        <v>146</v>
+        <v>110</v>
+      </c>
+      <c r="W56" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -4808,29 +4806,29 @@
         <v>23</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="1" t="s">
         <v>51</v>
       </c>
       <c r="T57" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W57" s="11" t="s">
-        <v>146</v>
+        <v>110</v>
+      </c>
+      <c r="W57" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4888,7 +4886,7 @@
         <v>41</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>31</v>
@@ -4897,7 +4895,7 @@
         <v>32</v>
       </c>
       <c r="W58" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4955,7 +4953,7 @@
         <v>41</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>31</v>
@@ -5020,7 +5018,7 @@
         <v>41</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>31</v>
@@ -5085,7 +5083,7 @@
         <v>51</v>
       </c>
       <c r="T61" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U61" s="3" t="s">
         <v>85</v>
@@ -5094,7 +5092,7 @@
         <v>32</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5140,7 +5138,7 @@
         <v>55</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>36</v>
@@ -5150,7 +5148,7 @@
         <v>51</v>
       </c>
       <c r="T62" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>85</v>
@@ -5158,8 +5156,8 @@
       <c r="V62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W62" s="11" t="s">
-        <v>86</v>
+      <c r="W62" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5215,7 +5213,7 @@
         <v>51</v>
       </c>
       <c r="T63" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U63" s="3" t="s">
         <v>85</v>
@@ -5223,8 +5221,8 @@
       <c r="V63" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>86</v>
+      <c r="W63" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,10 +5273,10 @@
       </c>
       <c r="R64" s="3"/>
       <c r="S64" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T64" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="U64" s="3" t="s">
         <v>31</v>
@@ -5287,7 +5285,7 @@
         <v>32</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5331,26 +5329,26 @@
         <v>26</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R65" s="3"/>
       <c r="S65" s="3" t="s">
         <v>29</v>
       </c>
       <c r="T65" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V65" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X65" s="5">
         <v>24</v>
@@ -5397,7 +5395,7 @@
         <v>26</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>36</v>
@@ -5410,13 +5408,13 @@
         <v>30</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W66" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="X66" s="5">
         <v>25</v>
@@ -5427,7 +5425,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="5">
         <v>100</v>
@@ -5463,10 +5461,10 @@
         <v>26</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R67" s="3"/>
       <c r="S67" s="3" t="s">
@@ -5476,13 +5474,13 @@
         <v>30</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5538,7 +5536,7 @@
         <v>41</v>
       </c>
       <c r="T68" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U68" s="3" t="s">
         <v>31</v>
@@ -5547,12 +5545,12 @@
         <v>32</v>
       </c>
       <c r="W68" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>24</v>
@@ -5584,40 +5582,40 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N69" s="5">
         <v>227</v>
       </c>
       <c r="O69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P69" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="P69" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R69" s="5"/>
       <c r="S69" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="T69" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>24</v>
@@ -5649,40 +5647,40 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N70" s="5">
         <v>227</v>
       </c>
       <c r="O70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P70" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="P70" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="U70" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="T70" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="U70" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>24</v>
@@ -5717,7 +5715,7 @@
     </row>
     <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>24</v>
@@ -5752,7 +5750,7 @@
     </row>
     <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>24</v>
@@ -5787,7 +5785,7 @@
     </row>
     <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>24</v>
@@ -5822,7 +5820,7 @@
     </row>
     <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>24</v>
@@ -5857,7 +5855,7 @@
     </row>
     <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>24</v>
@@ -5884,15 +5882,15 @@
         <v>28</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>72</v>
@@ -7073,7 +7071,7 @@
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{90AB38B8-070C-46DE-BEDB-22963BD4FFF7}">
+      <autoFilter ref="A1:A1066" xr:uid="{5DD3529A-5536-4006-A703-5D9F5655787F}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B6C96-B41A-4953-94C0-8FBC70F1DF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4815D-81F5-457F-9A27-5C2F15D858AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="-18120" windowWidth="27405" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27405" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1041,33 +1041,33 @@
   <dimension ref="A1:Z1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W57" sqref="W57"/>
+      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="6.15234375" customWidth="1"/>
-    <col min="5" max="5" width="5.69140625" customWidth="1"/>
-    <col min="6" max="6" width="29.69140625" customWidth="1"/>
-    <col min="7" max="7" width="30.15234375" customWidth="1"/>
-    <col min="8" max="8" width="26.84375" customWidth="1"/>
-    <col min="9" max="9" width="27.3046875" customWidth="1"/>
-    <col min="10" max="13" width="17.15234375" customWidth="1"/>
-    <col min="14" max="15" width="16.15234375" customWidth="1"/>
-    <col min="16" max="16" width="16.53515625" customWidth="1"/>
-    <col min="17" max="20" width="22.15234375" customWidth="1"/>
-    <col min="21" max="21" width="16.53515625" customWidth="1"/>
-    <col min="22" max="22" width="16.3046875" customWidth="1"/>
-    <col min="23" max="23" width="61.84375" customWidth="1"/>
-    <col min="24" max="37" width="8.69140625" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="20" width="22.140625" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" customWidth="1"/>
+    <col min="23" max="23" width="61.85546875" customWidth="1"/>
+    <col min="24" max="37" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>125</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>125</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>125</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>125</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>65</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>65</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -2781,12 +2781,12 @@
       <c r="V26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W26" s="11" t="s">
-        <v>96</v>
+      <c r="W26" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>132</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>132</v>
       </c>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>132</v>
       </c>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>139</v>
       </c>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>139</v>
       </c>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>59</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>63</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>59</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>63</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>136</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>138</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>144</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>144</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>144</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>145</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>145</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>145</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>37</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>37</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>54</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>54</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>47</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>23</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>23</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>23</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>115</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>115</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>143</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>143</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>143</v>
       </c>
@@ -5923,78 +5923,78 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q79" s="5"/>
     </row>
-    <row r="80" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q82" s="5"/>
     </row>
-    <row r="83" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="Q85" s="5"/>
     </row>
-    <row r="86" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
     </row>
-    <row r="87" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="Q88" s="5"/>
     </row>
-    <row r="89" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
     </row>
-    <row r="90" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q91" s="5"/>
     </row>
-    <row r="92" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q92" s="3"/>
     </row>
-    <row r="93" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q93" s="5"/>
     </row>
-    <row r="94" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q94" s="3"/>
     </row>
-    <row r="95" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q95" s="5"/>
     </row>
-    <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
@@ -6004,7 +6004,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
     </row>
-    <row r="98" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
@@ -6015,7 +6015,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
     </row>
-    <row r="99" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
@@ -6026,7 +6026,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
     </row>
-    <row r="100" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
@@ -6037,7 +6037,7 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
     </row>
-    <row r="101" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
@@ -6048,39 +6048,39 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
     </row>
-    <row r="102" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="Q102" s="3"/>
     </row>
-    <row r="103" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
       <c r="Q103" s="5"/>
     </row>
-    <row r="104" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
     </row>
-    <row r="105" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
@@ -6090,7 +6090,7 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
     </row>
-    <row r="109" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
@@ -6100,7 +6100,7 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
     </row>
-    <row r="110" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
@@ -6110,958 +6110,958 @@
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
     </row>
-    <row r="111" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1034" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1035" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1036" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1037" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1038" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1039" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1040" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1041" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1042" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1043" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1044" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1045" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1046" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1047" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1048" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1049" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1050" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1051" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1052" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1053" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1054" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1055" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1056" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1057" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1058" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1059" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1060" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1061" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1062" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1057" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1058" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1059" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1060" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1061" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1062" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:W110" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W110">
@@ -7071,7 +7071,7 @@
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{5DD3529A-5536-4006-A703-5D9F5655787F}">
+      <autoFilter ref="A1:A1066" xr:uid="{9AF85256-14FE-4FB8-8E10-555D69946767}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4815D-81F5-457F-9A27-5C2F15D858AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836D818D-7276-43D5-9A66-9D1CA36F4CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27405" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27180" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$1062</definedName>
     <definedName name="Z_DE1A636D_2FFA_4081_94BF_35B6A450A334_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1062</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="196">
   <si>
     <t>Vaccine</t>
   </si>
@@ -627,6 +627,40 @@
   <si>
     <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>NRVV</t>
+  </si>
+  <si>
+    <t>Inactivated</t>
+  </si>
+  <si>
+    <t>Protein subunit</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Novavax</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protein subunit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoVLP</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLP</t>
   </si>
 </sst>
 </file>
@@ -637,7 +671,7 @@
     <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +792,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -792,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -823,6 +871,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1041,10 +1091,10 @@
   <dimension ref="A1:Z1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1114,8 @@
     <col min="21" max="21" width="16.5703125" customWidth="1"/>
     <col min="22" max="22" width="16.28515625" customWidth="1"/>
     <col min="23" max="23" width="61.85546875" customWidth="1"/>
-    <col min="24" max="37" width="8.7109375" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="25" customWidth="1"/>
+    <col min="25" max="37" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,7 +1188,9 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
+      <c r="X1" s="24" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1206,6 +1259,9 @@
       </c>
       <c r="W2" s="17" t="s">
         <v>151</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,7 +1328,9 @@
       <c r="W3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="1"/>
+      <c r="X3" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1338,8 +1396,8 @@
       <c r="W4" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="X4" s="1">
-        <v>2</v>
+      <c r="X4" s="24" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,7 +1463,9 @@
       <c r="W5" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="X5" s="1"/>
+      <c r="X5" s="24" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1470,7 +1530,9 @@
       <c r="W6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="X6" s="1"/>
+      <c r="X6" s="24" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1535,7 +1597,9 @@
       <c r="W7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="X7" s="1"/>
+      <c r="X7" s="24" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1600,7 +1664,9 @@
       <c r="W8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="X8" s="3"/>
+      <c r="X8" s="24" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1665,7 +1731,9 @@
       <c r="W9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="X9" s="3"/>
+      <c r="X9" s="24" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1730,11 +1798,13 @@
       <c r="W10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="X10" s="3"/>
+      <c r="X10" s="24" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>79</v>
+      <c r="A11" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -1796,7 +1866,9 @@
       <c r="W11" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="X11" s="1"/>
+      <c r="X11" s="24" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1862,7 +1934,9 @@
       <c r="W12" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="X12" s="1"/>
+      <c r="X12" s="24" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1928,7 +2002,9 @@
       <c r="W13" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="X13" s="1"/>
+      <c r="X13" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1994,7 +2070,9 @@
       <c r="W14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X14" s="1"/>
+      <c r="X14" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2060,7 +2138,9 @@
       <c r="W15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X15" s="1"/>
+      <c r="X15" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2126,7 +2206,9 @@
       <c r="W16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X16" s="1"/>
+      <c r="X16" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -2192,7 +2274,9 @@
       <c r="W17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X17" s="1"/>
+      <c r="X17" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -2258,7 +2342,9 @@
       <c r="W18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X18" s="1"/>
+      <c r="X18" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2323,7 +2409,9 @@
       <c r="W19" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="X19" s="1"/>
+      <c r="X19" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2388,7 +2476,9 @@
       <c r="W20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="X20" s="1"/>
+      <c r="X20" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -2454,7 +2544,9 @@
       <c r="W21" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="X21" s="1"/>
+      <c r="X21" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -2520,7 +2612,9 @@
       <c r="W22" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="X22" s="1"/>
+      <c r="X22" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -2586,7 +2680,9 @@
       <c r="W23" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="X23" s="1"/>
+      <c r="X23" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2652,7 +2748,9 @@
       <c r="W24" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="X24" s="1"/>
+      <c r="X24" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -2718,7 +2816,9 @@
       <c r="W25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="X25" s="1"/>
+      <c r="X25" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -2784,7 +2884,9 @@
       <c r="W26" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="X26" s="1"/>
+      <c r="X26" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -2850,11 +2952,13 @@
       <c r="W27" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="X27" s="1"/>
+      <c r="X27" s="24" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>132</v>
+      <c r="A28" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>24</v>
@@ -2915,7 +3019,9 @@
       <c r="W28" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="X28" s="1"/>
+      <c r="X28" s="24" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -2980,7 +3086,9 @@
       <c r="W29" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="X29" s="1"/>
+      <c r="X29" s="24" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -3045,7 +3153,9 @@
       <c r="W30" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="X30" s="1"/>
+      <c r="X30" s="24" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3111,7 +3221,9 @@
       <c r="W31" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="X31" s="1"/>
+      <c r="X31" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -3177,6 +3289,9 @@
       <c r="W32" s="11" t="s">
         <v>92</v>
       </c>
+      <c r="X32" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3243,6 +3358,9 @@
       <c r="W33" s="11" t="s">
         <v>92</v>
       </c>
+      <c r="X33" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3309,6 +3427,9 @@
       <c r="W34" s="15" t="s">
         <v>164</v>
       </c>
+      <c r="X34" s="25" t="s">
+        <v>188</v>
+      </c>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,7 +3495,9 @@
       <c r="W35" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="X35" s="1"/>
+      <c r="X35" s="25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -3439,7 +3562,9 @@
       <c r="W36" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="X36" s="1"/>
+      <c r="X36" s="25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -3504,7 +3629,9 @@
       <c r="W37" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="X37" s="1"/>
+      <c r="X37" s="25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -3570,7 +3697,9 @@
       <c r="W38" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="X38" s="1"/>
+      <c r="X38" s="24" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -3636,7 +3765,9 @@
       <c r="W39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="X39" s="1"/>
+      <c r="X39" s="24" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
@@ -3706,7 +3837,9 @@
       <c r="W40" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="X40" s="1"/>
+      <c r="X40" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -3775,6 +3908,9 @@
       </c>
       <c r="W41" s="8" t="s">
         <v>62</v>
+      </c>
+      <c r="X41" s="24" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,6 +3977,9 @@
       <c r="W42" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="X42" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
@@ -3906,6 +4045,9 @@
       <c r="W43" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="X43" s="24" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -3973,6 +4115,9 @@
       <c r="W44" s="15" t="s">
         <v>167</v>
       </c>
+      <c r="X44" s="25" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -4038,6 +4183,9 @@
       <c r="W45" s="19" t="s">
         <v>168</v>
       </c>
+      <c r="X45" s="25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -4104,6 +4252,9 @@
       </c>
       <c r="W46" s="19" t="s">
         <v>168</v>
+      </c>
+      <c r="X46" s="25" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4168,6 +4319,9 @@
       <c r="W47" s="15" t="s">
         <v>170</v>
       </c>
+      <c r="X47" s="24" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -4235,8 +4389,8 @@
       <c r="W48" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="X48" s="5">
-        <v>18</v>
+      <c r="X48" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4305,6 +4459,9 @@
       <c r="W49" s="14" t="s">
         <v>146</v>
       </c>
+      <c r="X49" s="25" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -4372,6 +4529,9 @@
       <c r="W50" s="14" t="s">
         <v>146</v>
       </c>
+      <c r="X50" s="25" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -4437,6 +4597,9 @@
       <c r="W51" s="16" t="s">
         <v>149</v>
       </c>
+      <c r="X51" s="24" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -4502,6 +4665,9 @@
       <c r="W52" s="20" t="s">
         <v>185</v>
       </c>
+      <c r="X52" s="25" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -4567,8 +4733,8 @@
       <c r="W53" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="X53" s="5">
-        <v>21</v>
+      <c r="X53" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4635,6 +4801,9 @@
       <c r="W54" s="20" t="s">
         <v>185</v>
       </c>
+      <c r="X54" s="25" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
@@ -4700,6 +4869,9 @@
       <c r="W55" s="20" t="s">
         <v>185</v>
       </c>
+      <c r="X55" s="25" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -4765,6 +4937,9 @@
       <c r="W56" s="20" t="s">
         <v>185</v>
       </c>
+      <c r="X56" s="25" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -4830,6 +5005,9 @@
       <c r="W57" s="20" t="s">
         <v>185</v>
       </c>
+      <c r="X57" s="25" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -4897,6 +5075,9 @@
       <c r="W58" s="19" t="s">
         <v>172</v>
       </c>
+      <c r="X58" s="25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
@@ -4964,6 +5145,9 @@
       <c r="W59" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="X59" s="25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -5029,6 +5213,9 @@
       <c r="W60" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="X60" s="25" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -5094,6 +5281,9 @@
       <c r="W61" s="22" t="s">
         <v>173</v>
       </c>
+      <c r="X61" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
@@ -5159,6 +5349,9 @@
       <c r="W62" s="20" t="s">
         <v>184</v>
       </c>
+      <c r="X62" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -5223,6 +5416,9 @@
       </c>
       <c r="W63" s="20" t="s">
         <v>184</v>
+      </c>
+      <c r="X63" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,6 +5483,9 @@
       <c r="W64" s="20" t="s">
         <v>174</v>
       </c>
+      <c r="X64" s="25" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -5350,8 +5549,8 @@
       <c r="W65" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="X65" s="5">
-        <v>24</v>
+      <c r="X65" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5416,8 +5615,8 @@
       <c r="W66" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="X66" s="5">
-        <v>25</v>
+      <c r="X66" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5482,6 +5681,9 @@
       <c r="W67" s="11" t="s">
         <v>177</v>
       </c>
+      <c r="X67" s="24" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -5547,6 +5749,9 @@
       <c r="W68" s="19" t="s">
         <v>179</v>
       </c>
+      <c r="X68" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -5612,6 +5817,9 @@
       <c r="W69" s="15" t="s">
         <v>180</v>
       </c>
+      <c r="X69" s="24" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -5676,6 +5884,9 @@
       </c>
       <c r="W70" s="5" t="s">
         <v>121</v>
+      </c>
+      <c r="X70" s="24" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7063,15 +7274,11 @@
     <row r="1061" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1062" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:W110" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W110">
-      <sortCondition ref="W1:W110"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Z1062" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{9AF85256-14FE-4FB8-8E10-555D69946767}">
+      <autoFilter ref="A1:A1066" xr:uid="{925D6157-5EDF-48CB-B60F-55DC3972B445}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>

--- a/vaccine_details.xlsx
+++ b/vaccine_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\COVID19-VaccinePhase3MetaAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chee1\repository\COVID19-VaccinePhase3MetaAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836D818D-7276-43D5-9A66-9D1CA36F4CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB28847-4009-4042-B4B0-23BCBB7D3252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27180" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>1 - relative risk</t>
   </si>
   <si>
-    <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
-  </si>
-  <si>
     <t>Symptomatic -moderate</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
   </si>
   <si>
     <t>Argentina, Chile, Mexico. Pakistan and russia</t>
-  </si>
-  <si>
-    <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
   </si>
   <si>
     <t>Symptomatic infection-after 28 days</t>
@@ -530,18 +524,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Frenk2021_safety_immunogenicity_and_efficacy_of_the_BNT162b2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -574,10 +560,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -661,6 +643,24 @@
   </si>
   <si>
     <t>VLP</t>
+  </si>
+  <si>
+    <t>Frenck2021_safety_immunogenicity_and_efficacy_of_the_BNT162b2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halperin2022_Final_efficacy_analysis_interim_safety_analysis_and</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sadoff2021_Safety_and_efficacy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sadoff2022_Safety_and_efficacy</t>
+  </si>
+  <si>
+    <t>Sadoff2023_Safety_and_efficacy</t>
   </si>
 </sst>
 </file>
@@ -1091,34 +1091,34 @@
   <dimension ref="A1:Z1062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
-    <col min="17" max="20" width="22.140625" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" customWidth="1"/>
-    <col min="23" max="23" width="61.85546875" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="25" customWidth="1"/>
-    <col min="25" max="37" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="13" width="17.109375" customWidth="1"/>
+    <col min="14" max="15" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" customWidth="1"/>
+    <col min="17" max="20" width="22.109375" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="61.88671875" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" style="25" customWidth="1"/>
+    <col min="25" max="37" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,12 +1189,12 @@
         <v>22</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>24</v>
@@ -1236,20 +1236,20 @@
         <v>88</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>31</v>
@@ -1258,15 +1258,15 @@
         <v>32</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -1275,10 +1275,10 @@
         <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4">
         <v>15210</v>
@@ -1287,7 +1287,7 @@
         <v>15210</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="4">
         <v>30</v>
@@ -1304,20 +1304,20 @@
         <v>88</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>31</v>
@@ -1326,15 +1326,15 @@
         <v>32</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>24</v>
@@ -1370,7 +1370,7 @@
         <v>365</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>28</v>
@@ -1382,27 +1382,27 @@
         <v>1</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -1437,39 +1437,39 @@
         <v>365</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" s="5">
         <v>1</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -1504,42 +1504,42 @@
         <v>365</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R6" s="5">
         <v>1</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5">
         <v>76.099999999999994</v>
@@ -1571,10 +1571,10 @@
         <v>365</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>28</v>
@@ -1583,30 +1583,30 @@
         <v>1</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="X7" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="C8" s="5">
         <v>88.3</v>
@@ -1638,10 +1638,10 @@
         <v>365</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>28</v>
@@ -1650,30 +1650,30 @@
         <v>1</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X8" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5">
         <v>75.2</v>
@@ -1705,10 +1705,10 @@
         <v>365</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>28</v>
@@ -1717,30 +1717,30 @@
         <v>1</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X9" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5">
         <v>71.900000000000006</v>
@@ -1772,10 +1772,10 @@
         <v>365</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>28</v>
@@ -1784,27 +1784,27 @@
         <v>1</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X10" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -1836,16 +1836,16 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" s="5">
         <v>53</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>28</v>
@@ -1855,7 +1855,7 @@
         <v>41</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>31</v>
@@ -1864,15 +1864,15 @@
         <v>32</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X11" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -1904,13 +1904,13 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" s="5">
         <v>53</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>36</v>
@@ -1923,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>31</v>
@@ -1932,15 +1932,15 @@
         <v>32</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X12" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
@@ -1972,26 +1972,26 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N13" s="1">
         <v>52</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>31</v>
@@ -2000,15 +2000,15 @@
         <v>32</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X13" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -2040,23 +2040,23 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N14" s="1">
         <v>52</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>30</v>
@@ -2068,15 +2068,15 @@
         <v>32</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X14" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>24</v>
@@ -2108,23 +2108,23 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N15" s="1">
         <v>52</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>30</v>
@@ -2136,18 +2136,18 @@
         <v>32</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X15" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4">
         <v>70.8</v>
@@ -2176,23 +2176,23 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N16" s="1">
         <v>52</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>30</v>
@@ -2204,18 +2204,18 @@
         <v>32</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X16" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4">
         <v>65.2</v>
@@ -2244,23 +2244,23 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N17" s="1">
         <v>52</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>30</v>
@@ -2272,18 +2272,18 @@
         <v>32</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X17" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="4">
         <v>90.1</v>
@@ -2312,23 +2312,23 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N18" s="1">
         <v>52</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>30</v>
@@ -2340,18 +2340,18 @@
         <v>32</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X18" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="5">
         <v>70.400000000000006</v>
@@ -2375,18 +2375,18 @@
         <v>40</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N19" s="5">
         <v>82</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>28</v>
@@ -2398,27 +2398,27 @@
         <v>41</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W19" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="X19" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="5">
         <v>81.5</v>
@@ -2442,18 +2442,18 @@
         <v>80</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N20" s="5">
         <v>82</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>28</v>
@@ -2465,24 +2465,24 @@
         <v>41</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X20" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>24</v>
@@ -2514,13 +2514,13 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N21" s="5">
         <v>112</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>40</v>
@@ -2533,7 +2533,7 @@
         <v>41</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>31</v>
@@ -2542,15 +2542,15 @@
         <v>32</v>
       </c>
       <c r="W21" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X21" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>24</v>
@@ -2582,16 +2582,16 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N22" s="5">
         <v>112</v>
       </c>
       <c r="O22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>28</v>
@@ -2601,7 +2601,7 @@
         <v>41</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>31</v>
@@ -2610,15 +2610,15 @@
         <v>32</v>
       </c>
       <c r="W22" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X22" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>24</v>
@@ -2650,26 +2650,26 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N23" s="5">
         <v>112</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="5" t="s">
         <v>41</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>31</v>
@@ -2678,15 +2678,15 @@
         <v>32</v>
       </c>
       <c r="W23" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X23" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
@@ -2718,26 +2718,26 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N24" s="5">
         <v>112</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="5" t="s">
         <v>41</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>31</v>
@@ -2746,15 +2746,15 @@
         <v>32</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X24" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -2786,26 +2786,26 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N25" s="5">
         <v>112</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>31</v>
@@ -2814,15 +2814,15 @@
         <v>32</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X25" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -2854,26 +2854,26 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N26" s="5">
         <v>112</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="5" t="s">
         <v>41</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>31</v>
@@ -2882,13 +2882,13 @@
         <v>32</v>
       </c>
       <c r="W26" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X26" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -2922,16 +2922,16 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N27" s="5">
         <v>28</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>28</v>
@@ -2941,24 +2941,24 @@
         <v>41</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W27" s="20" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="X27" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>24</v>
@@ -2987,13 +2987,13 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N28" s="5">
         <v>171</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>28</v>
@@ -3005,27 +3005,27 @@
         <v>1</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W28" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="X28" s="24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>24</v>
@@ -3054,45 +3054,45 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N29" s="5">
         <v>171</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R29" s="5">
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="X29" s="24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>24</v>
@@ -3104,7 +3104,7 @@
         <v>-63.7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="5">
         <v>12074</v>
@@ -3121,13 +3121,13 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N30" s="5">
         <v>171</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>36</v>
@@ -3139,27 +3139,27 @@
         <v>1</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W30" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="X30" s="24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -3191,13 +3191,13 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N31" s="5">
         <v>115</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>40</v>
@@ -3207,10 +3207,10 @@
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>31</v>
@@ -3219,15 +3219,15 @@
         <v>32</v>
       </c>
       <c r="W31" s="20" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="X31" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>24</v>
@@ -3259,26 +3259,26 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N32" s="5">
         <v>115</v>
       </c>
       <c r="O32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>31</v>
@@ -3286,17 +3286,17 @@
       <c r="V32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W32" s="11" t="s">
-        <v>92</v>
+      <c r="W32" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="X32" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -3317,10 +3317,10 @@
         <v>14568</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" s="5">
         <v>6.5</v>
@@ -3328,26 +3328,26 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N33" s="5">
         <v>115</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R33" s="3"/>
       <c r="S33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>31</v>
@@ -3355,17 +3355,17 @@
       <c r="V33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>92</v>
+      <c r="W33" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="X33" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>24</v>
@@ -3392,18 +3392,18 @@
         <v>53</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>28</v>
@@ -3413,28 +3413,28 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="X34" s="25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>24</v>
@@ -3461,47 +3461,47 @@
         <v>44</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X35" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>24</v>
@@ -3528,47 +3528,47 @@
         <v>8</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X36" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>24</v>
@@ -3595,47 +3595,47 @@
         <v>56</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P37" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P37" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="Q37" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X37" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
@@ -3667,16 +3667,16 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N38" s="5">
         <v>61</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>28</v>
@@ -3686,7 +3686,7 @@
         <v>41</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>31</v>
@@ -3695,18 +3695,18 @@
         <v>32</v>
       </c>
       <c r="W38" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X38" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="5">
         <v>86.3</v>
@@ -3718,16 +3718,16 @@
         <v>93.5</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="5">
         <v>2</v>
@@ -3735,16 +3735,16 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N39" s="5">
         <v>61</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>28</v>
@@ -3754,7 +3754,7 @@
         <v>41</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U39" s="3" t="s">
         <v>31</v>
@@ -3763,15 +3763,15 @@
         <v>32</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X39" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>24</v>
@@ -3807,16 +3807,16 @@
         <v>44.7</v>
       </c>
       <c r="M40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="P40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>28</v>
@@ -3835,15 +3835,15 @@
         <v>32</v>
       </c>
       <c r="W40" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="X40" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -3879,16 +3879,16 @@
         <v>44.7</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="P41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>28</v>
@@ -3907,15 +3907,15 @@
         <v>32</v>
       </c>
       <c r="W41" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X41" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>24</v>
@@ -3924,10 +3924,10 @@
         <v>100</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="4">
         <v>13465</v>
@@ -3936,7 +3936,7 @@
         <v>13458</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I42" s="4">
         <v>2</v>
@@ -3947,16 +3947,16 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="P42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>36</v>
@@ -3975,15 +3975,15 @@
         <v>32</v>
       </c>
       <c r="W42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X42" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="X42" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>24</v>
@@ -3992,10 +3992,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" s="4">
         <v>13459</v>
@@ -4004,7 +4004,7 @@
         <v>13458</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I43" s="4">
         <v>2</v>
@@ -4015,16 +4015,16 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="P43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>36</v>
@@ -4043,18 +4043,18 @@
         <v>32</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X43" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="5">
         <v>66.599999999999994</v>
@@ -4083,13 +4083,13 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N44" s="5">
         <v>158</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>28</v>
@@ -4101,25 +4101,25 @@
         <v>1</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V44" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W44" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="X44" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -4169,10 +4169,10 @@
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T45" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>31</v>
@@ -4181,13 +4181,13 @@
         <v>32</v>
       </c>
       <c r="W45" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="X45" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>35</v>
@@ -4251,18 +4251,18 @@
         <v>32</v>
       </c>
       <c r="W46" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="X46" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="5">
         <v>94.8</v>
@@ -4293,7 +4293,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>28</v>
@@ -4305,27 +4305,27 @@
         <v>1</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T47" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X47" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>24</v>
@@ -4357,16 +4357,16 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N48" s="1">
         <v>148</v>
       </c>
       <c r="O48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>28</v>
@@ -4375,10 +4375,10 @@
         <v>2</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T48" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>31</v>
@@ -4387,15 +4387,15 @@
         <v>32</v>
       </c>
       <c r="W48" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X48" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>24</v>
@@ -4427,28 +4427,28 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N49" s="1">
         <v>148</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R49" s="3">
         <v>4</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T49" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>31</v>
@@ -4457,15 +4457,15 @@
         <v>32</v>
       </c>
       <c r="W49" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X49" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>24</v>
@@ -4497,16 +4497,16 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N50" s="1">
         <v>148</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>36</v>
@@ -4515,10 +4515,10 @@
         <v>7</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U50" s="3" t="s">
         <v>31</v>
@@ -4527,13 +4527,13 @@
         <v>32</v>
       </c>
       <c r="W50" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X50" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>29</v>
       </c>
       <c r="T51" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U51" s="3" t="s">
         <v>31</v>
@@ -4595,15 +4595,15 @@
         <v>32</v>
       </c>
       <c r="W51" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X51" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>24</v>
@@ -4641,37 +4641,37 @@
         <v>23</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T52" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W52" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X52" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="X52" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>24</v>
@@ -4680,10 +4680,10 @@
         <v>63</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" s="5">
         <v>14371</v>
@@ -4709,37 +4709,37 @@
         <v>23</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T53" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W53" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X53" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="X53" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>24</v>
@@ -4748,10 +4748,10 @@
         <v>59</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F54" s="5">
         <v>14371</v>
@@ -4777,37 +4777,37 @@
         <v>23</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T54" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W54" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X54" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="X54" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>24</v>
@@ -4845,37 +4845,37 @@
         <v>23</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T55" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W55" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X55" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="X55" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -4884,10 +4884,10 @@
         <v>100</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="5">
         <v>13883</v>
@@ -4913,37 +4913,37 @@
         <v>23</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R56" s="3"/>
       <c r="S56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W56" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X56" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="X56" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -4952,10 +4952,10 @@
         <v>100</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="5">
         <v>13883</v>
@@ -4981,35 +4981,35 @@
         <v>23</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T57" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W57" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X57" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="X57" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>37</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>41</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>31</v>
@@ -5073,13 +5073,13 @@
         <v>32</v>
       </c>
       <c r="W58" s="19" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="X58" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>37</v>
       </c>
@@ -5122,10 +5122,10 @@
         <v>39</v>
       </c>
       <c r="P59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q59" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="R59" s="3">
         <v>4</v>
@@ -5134,7 +5134,7 @@
         <v>41</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>31</v>
@@ -5142,14 +5142,14 @@
       <c r="V59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W59" s="1" t="s">
-        <v>42</v>
+      <c r="W59" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="X59" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>37</v>
       </c>
@@ -5192,17 +5192,17 @@
         <v>39</v>
       </c>
       <c r="P60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q60" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="R60" s="3"/>
       <c r="S60" s="3" t="s">
         <v>41</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>31</v>
@@ -5210,16 +5210,16 @@
       <c r="V60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W60" s="1" t="s">
-        <v>42</v>
+      <c r="W60" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="X60" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -5257,37 +5257,37 @@
         <v>88</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R61" s="3"/>
       <c r="S61" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T61" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="X61" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>24</v>
@@ -5325,37 +5325,37 @@
         <v>88</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R62" s="3"/>
       <c r="S62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T62" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X62" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>24</v>
@@ -5393,37 +5393,37 @@
         <v>88</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P63" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q63" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="Q63" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="R63" s="3"/>
       <c r="S63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T63" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V63" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X63" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>24</v>
@@ -5459,20 +5459,20 @@
         <v>113</v>
       </c>
       <c r="O64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P64" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="P64" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R64" s="3"/>
       <c r="S64" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="T64" s="23" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="U64" s="3" t="s">
         <v>31</v>
@@ -5481,13 +5481,13 @@
         <v>32</v>
       </c>
       <c r="W64" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X64" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>23</v>
       </c>
@@ -5528,32 +5528,32 @@
         <v>26</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R65" s="3"/>
       <c r="S65" s="3" t="s">
         <v>29</v>
       </c>
       <c r="T65" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U65" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V65" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="X65" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>23</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>26</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>36</v>
@@ -5607,24 +5607,24 @@
         <v>30</v>
       </c>
       <c r="U66" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W66" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="X66" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C67" s="5">
         <v>100</v>
@@ -5642,10 +5642,10 @@
         <v>20794</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -5660,10 +5660,10 @@
         <v>26</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R67" s="3"/>
       <c r="S67" s="3" t="s">
@@ -5673,21 +5673,21 @@
         <v>30</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="W67" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="X67" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>24</v>
@@ -5719,16 +5719,16 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N68" s="1">
         <v>195</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q68" s="5" t="s">
         <v>28</v>
@@ -5738,7 +5738,7 @@
         <v>41</v>
       </c>
       <c r="T68" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U68" s="3" t="s">
         <v>31</v>
@@ -5747,15 +5747,15 @@
         <v>32</v>
       </c>
       <c r="W68" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="X68" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>24</v>
@@ -5787,43 +5787,43 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N69" s="5">
         <v>227</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R69" s="5"/>
       <c r="S69" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="T69" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W69" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="X69" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>24</v>
@@ -5855,43 +5855,43 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N70" s="5">
         <v>227</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T70" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>32</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X70" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>24</v>
@@ -5924,9 +5924,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>24</v>
@@ -5953,15 +5953,15 @@
         <v>587</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>24</v>
@@ -5988,15 +5988,15 @@
         <v>375</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>24</v>
@@ -6029,9 +6029,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>24</v>
@@ -6058,15 +6058,15 @@
         <v>119</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>24</v>
@@ -6093,18 +6093,18 @@
         <v>28</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="5">
         <v>76.66</v>
@@ -6134,78 +6134,78 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="5"/>
     </row>
-    <row r="80" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q81" s="3"/>
     </row>
-    <row r="82" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q82" s="5"/>
     </row>
-    <row r="83" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
       <c r="Q84" s="3"/>
     </row>
-    <row r="85" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
       <c r="Q85" s="5"/>
     </row>
-    <row r="86" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
       <c r="M86" s="10"/>
     </row>
-    <row r="87" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="Q87" s="3"/>
     </row>
-    <row r="88" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="Q88" s="5"/>
     </row>
-    <row r="89" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
     </row>
-    <row r="90" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q90" s="3"/>
     </row>
-    <row r="91" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q91" s="5"/>
     </row>
-    <row r="92" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q92" s="3"/>
     </row>
-    <row r="93" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q93" s="5"/>
     </row>
-    <row r="94" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q94" s="3"/>
     </row>
-    <row r="95" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q95" s="5"/>
     </row>
-    <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
@@ -6215,7 +6215,7 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
     </row>
-    <row r="98" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
@@ -6226,7 +6226,7 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
     </row>
-    <row r="99" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
@@ -6237,7 +6237,7 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
     </row>
-    <row r="100" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
@@ -6248,7 +6248,7 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
     </row>
-    <row r="101" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
@@ -6259,39 +6259,39 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
     </row>
-    <row r="102" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="Q102" s="3"/>
     </row>
-    <row r="103" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
       <c r="Q103" s="5"/>
     </row>
-    <row r="104" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
     </row>
-    <row r="105" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
       <c r="Q105" s="3"/>
     </row>
-    <row r="106" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
       <c r="Q106" s="3"/>
     </row>
-    <row r="107" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q107" s="3"/>
     </row>
-    <row r="108" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
@@ -6301,7 +6301,7 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
     </row>
-    <row r="109" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
@@ -6311,7 +6311,7 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
     </row>
-    <row r="110" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
       <c r="M110" s="10"/>
@@ -6321,964 +6321,964 @@
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
     </row>
-    <row r="111" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1034" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1035" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1036" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1037" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1038" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1039" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1040" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1041" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1042" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1043" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1044" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1045" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1046" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1047" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1049" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1050" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1051" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1052" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1053" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1054" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1055" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1056" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1057" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1058" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1059" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1060" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1061" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1062" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1029" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1030" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1031" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1032" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1033" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1034" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1035" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1036" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1037" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1038" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1039" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1040" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1041" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1042" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1043" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1044" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1045" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1046" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1047" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1048" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1049" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1050" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1051" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1052" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1053" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1054" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1055" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1056" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1057" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1058" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1059" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1060" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1061" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1062" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:Z1062" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{DE1A636D-2FFA-4081-94BF-35B6A450A334}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:A1066" xr:uid="{925D6157-5EDF-48CB-B60F-55DC3972B445}">
+      <autoFilter ref="A1:A1066" xr:uid="{C731F0A7-E913-470A-8009-2A8FA1750E49}">
         <filterColumn colId="0">
           <filters blank="1">
             <filter val="Ad26.COV2.S*"/>
